--- a/Code/Results/Cases/Case_3_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_40/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.646146749940783</v>
+        <v>3.64614674994084</v>
       </c>
       <c r="C2">
-        <v>0.8709071611420995</v>
+        <v>0.8709071611420143</v>
       </c>
       <c r="D2">
-        <v>0.03252329197945869</v>
+        <v>0.0325232919794729</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -430,16 +430,16 @@
         <v>0.8975094514710094</v>
       </c>
       <c r="H2">
-        <v>0.5124397970354977</v>
+        <v>0.5124397970354835</v>
       </c>
       <c r="I2">
-        <v>0.2367087862959849</v>
+        <v>0.2367087862959494</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.679435617973958</v>
+        <v>0.6794356179739225</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.154115120790436</v>
+        <v>3.15411512079055</v>
       </c>
       <c r="C3">
-        <v>0.7546447960924638</v>
+        <v>0.7546447960923217</v>
       </c>
       <c r="D3">
-        <v>0.02876879345797079</v>
+        <v>0.02876879345782868</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.191213107663017</v>
+        <v>1.191213107663032</v>
       </c>
       <c r="G3">
-        <v>0.8038376033658992</v>
+        <v>0.8038376033658921</v>
       </c>
       <c r="H3">
         <v>0.4770254374016929</v>
       </c>
       <c r="I3">
-        <v>0.2037839556967853</v>
+        <v>0.2037839556967995</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5843665637685262</v>
+        <v>0.584366563768512</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.854772453174974</v>
+        <v>2.854772453174803</v>
       </c>
       <c r="C4">
-        <v>0.6839348580753608</v>
+        <v>0.6839348580757303</v>
       </c>
       <c r="D4">
-        <v>0.02646837350727083</v>
+        <v>0.02646837350709319</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.104838240718649</v>
+        <v>1.104838240718678</v>
       </c>
       <c r="G4">
-        <v>0.7493734562494936</v>
+        <v>0.7493734562494865</v>
       </c>
       <c r="H4">
-        <v>0.4574712390498519</v>
+        <v>0.4574712390498661</v>
       </c>
       <c r="I4">
-        <v>0.1841578823801235</v>
+        <v>0.1841578823801342</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5270774125817255</v>
+        <v>0.5270774125817468</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,10 +526,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.733356551493273</v>
+        <v>2.733356551493216</v>
       </c>
       <c r="C5">
-        <v>0.6552567627491328</v>
+        <v>0.6552567627492465</v>
       </c>
       <c r="D5">
         <v>0.02553158622061602</v>
@@ -538,16 +538,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.070568974436142</v>
+        <v>1.070568974436114</v>
       </c>
       <c r="G5">
-        <v>0.7278683853886605</v>
+        <v>0.7278683853886747</v>
       </c>
       <c r="H5">
-        <v>0.4500039173236772</v>
+        <v>0.4500039173236985</v>
       </c>
       <c r="I5">
-        <v>0.1762886250234494</v>
+        <v>0.1762886250234459</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.713226379559103</v>
+        <v>2.71322637955916</v>
       </c>
       <c r="C6">
-        <v>0.6505021363620358</v>
+        <v>0.6505021363622632</v>
       </c>
       <c r="D6">
-        <v>0.02537605732895543</v>
+        <v>0.02537605732884174</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.064931742484873</v>
+        <v>1.064931742484887</v>
       </c>
       <c r="G6">
         <v>0.7243369848555616</v>
       </c>
       <c r="H6">
-        <v>0.4487928724610768</v>
+        <v>0.4487928724610839</v>
       </c>
       <c r="I6">
         <v>0.174989159037704</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5001380261778223</v>
+        <v>0.5001380261778365</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,10 +605,10 @@
         <v>2.85313285306529</v>
       </c>
       <c r="C7">
-        <v>0.6835475830415874</v>
+        <v>0.6835475830417295</v>
       </c>
       <c r="D7">
-        <v>0.02645573773241949</v>
+        <v>0.02645573773250476</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -617,19 +617,19 @@
         <v>1.104372446441616</v>
       </c>
       <c r="G7">
-        <v>0.7490807373269135</v>
+        <v>0.7490807373269277</v>
       </c>
       <c r="H7">
-        <v>0.4573685654288155</v>
+        <v>0.4573685654288084</v>
       </c>
       <c r="I7">
-        <v>0.184051259271957</v>
+        <v>0.1840512592719463</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5267648003255161</v>
+        <v>0.5267648003254877</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.475839742500682</v>
+        <v>3.475839742500796</v>
       </c>
       <c r="C8">
-        <v>0.8306587454402461</v>
+        <v>0.8306587454402177</v>
       </c>
       <c r="D8">
-        <v>0.0312273699576977</v>
+        <v>0.03122736995776165</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0.8645293280276434</v>
       </c>
       <c r="H8">
-        <v>0.4997430873735809</v>
+        <v>0.499743087373588</v>
       </c>
       <c r="I8">
         <v>0.2252213409806103</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6464050747627539</v>
+        <v>0.6464050747627681</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,10 +681,10 @@
         <v>4.72535731013545</v>
       </c>
       <c r="C9">
-        <v>1.126183150607659</v>
+        <v>1.126183150607176</v>
       </c>
       <c r="D9">
-        <v>0.04065259211473204</v>
+        <v>0.04065259211473915</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -696,16 +696,16 @@
         <v>1.119026029425186</v>
       </c>
       <c r="H9">
-        <v>0.6027046641972973</v>
+        <v>0.6027046641972902</v>
       </c>
       <c r="I9">
-        <v>0.3116416022476329</v>
+        <v>0.3116416022476542</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8916886923393434</v>
+        <v>0.8916886923393719</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.670882952168085</v>
+        <v>5.670882952167915</v>
       </c>
       <c r="C10">
-        <v>1.350260185244963</v>
+        <v>1.350260185245133</v>
       </c>
       <c r="D10">
-        <v>0.04766642961957501</v>
+        <v>0.0476664296196887</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.005430636655518</v>
+        <v>2.005430636655504</v>
       </c>
       <c r="G10">
-        <v>1.329267340520488</v>
+        <v>1.329267340520474</v>
       </c>
       <c r="H10">
         <v>0.6943666776212751</v>
       </c>
       <c r="I10">
-        <v>0.3802024876488872</v>
+        <v>0.380202487648873</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.081695759610639</v>
+        <v>1.081695759610653</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.109661089091105</v>
+        <v>6.109661089090935</v>
       </c>
       <c r="C11">
-        <v>1.454406710143758</v>
+        <v>1.454406710143871</v>
       </c>
       <c r="D11">
-        <v>0.05088913144124518</v>
+        <v>0.05088913144135176</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -769,13 +769,13 @@
         <v>2.161296839366116</v>
       </c>
       <c r="G11">
-        <v>1.431563937247262</v>
+        <v>1.431563937247248</v>
       </c>
       <c r="H11">
-        <v>0.7405633712787534</v>
+        <v>0.7405633712787463</v>
       </c>
       <c r="I11">
-        <v>0.4129180562431998</v>
+        <v>0.4129180562432353</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.277317270980291</v>
+        <v>6.277317270980234</v>
       </c>
       <c r="C12">
-        <v>1.494230408067665</v>
+        <v>1.494230408067949</v>
       </c>
       <c r="D12">
-        <v>0.05211531334239083</v>
+        <v>0.05211531334249031</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.221844942553716</v>
+        <v>2.22184494255373</v>
       </c>
       <c r="G12">
-        <v>1.471414704534595</v>
+        <v>1.471414704534581</v>
       </c>
       <c r="H12">
         <v>0.7588035454654189</v>
       </c>
       <c r="I12">
-        <v>0.4255682210233118</v>
+        <v>0.4255682210233047</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.205515310527304</v>
+        <v>1.205515310527318</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.241138309561109</v>
+        <v>6.241138309561279</v>
       </c>
       <c r="C13">
-        <v>1.485635328770172</v>
+        <v>1.485635328770343</v>
       </c>
       <c r="D13">
-        <v>0.05185095349977331</v>
+        <v>0.05185095349978042</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -845,19 +845,19 @@
         <v>2.208733234017203</v>
       </c>
       <c r="G13">
-        <v>1.462779886817557</v>
+        <v>1.462779886817543</v>
       </c>
       <c r="H13">
-        <v>0.7548402570186497</v>
+        <v>0.7548402570186425</v>
       </c>
       <c r="I13">
-        <v>0.4228314133048272</v>
+        <v>0.4228314133048201</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.198085652606949</v>
+        <v>1.198085652606977</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.123422596284513</v>
+        <v>6.123422596284627</v>
       </c>
       <c r="C14">
-        <v>1.457674878691193</v>
+        <v>1.45767487869108</v>
       </c>
       <c r="D14">
-        <v>0.05098988612081712</v>
+        <v>0.05098988612071764</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.166246259994907</v>
+        <v>2.166246259994892</v>
       </c>
       <c r="G14">
-        <v>1.434819197639683</v>
+        <v>1.434819197639655</v>
       </c>
       <c r="H14">
-        <v>0.7420484190947931</v>
+        <v>0.7420484190948002</v>
       </c>
       <c r="I14">
-        <v>0.4139532886457218</v>
+        <v>0.4139532886457502</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.173949306748227</v>
+        <v>1.173949306748256</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.051521942073236</v>
+        <v>6.05152194207318</v>
       </c>
       <c r="C15">
-        <v>1.440600691063651</v>
+        <v>1.440600691063139</v>
       </c>
       <c r="D15">
-        <v>0.05046325337501401</v>
+        <v>0.05046325337511348</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.140427281928396</v>
+        <v>2.14042728192841</v>
       </c>
       <c r="G15">
-        <v>1.417842464157147</v>
+        <v>1.417842464157133</v>
       </c>
       <c r="H15">
-        <v>0.7343134624177949</v>
+        <v>0.7343134624178163</v>
       </c>
       <c r="I15">
-        <v>0.4085505904953521</v>
+        <v>0.4085505904953379</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.15923511584765</v>
+        <v>1.159235115847636</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.642402982304134</v>
+        <v>5.642402982303906</v>
       </c>
       <c r="C16">
-        <v>1.34350404193134</v>
+        <v>1.343504041931624</v>
       </c>
       <c r="D16">
         <v>0.0474565628154906</v>
@@ -959,19 +959,19 @@
         <v>1.995445385084821</v>
       </c>
       <c r="G16">
-        <v>1.322728806059075</v>
+        <v>1.322728806059061</v>
       </c>
       <c r="H16">
-        <v>0.6914463380841269</v>
+        <v>0.691446338084134</v>
       </c>
       <c r="I16">
-        <v>0.3780986119699605</v>
+        <v>0.3780986119699747</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.075918294628138</v>
+        <v>1.075918294628153</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.393809378414062</v>
+        <v>5.393809378414176</v>
       </c>
       <c r="C17">
-        <v>1.284550191822689</v>
+        <v>1.284550191822802</v>
       </c>
       <c r="D17">
-        <v>0.04562107340628074</v>
+        <v>0.04562107340619548</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.908979968584191</v>
+        <v>1.908979968584148</v>
       </c>
       <c r="G17">
-        <v>1.266188843762421</v>
+        <v>1.266188843762407</v>
       </c>
       <c r="H17">
-        <v>0.6663675762866248</v>
+        <v>0.6663675762866106</v>
       </c>
       <c r="I17">
         <v>0.3598362456323514</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.251622165478238</v>
+        <v>5.251622165478409</v>
       </c>
       <c r="C18">
-        <v>1.250845207284385</v>
+        <v>1.250845207284442</v>
       </c>
       <c r="D18">
-        <v>0.04456828581118089</v>
+        <v>0.04456828581096062</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.860089900087232</v>
+        <v>1.860089900087218</v>
       </c>
       <c r="G18">
-        <v>1.234284574486978</v>
+        <v>1.234284574486963</v>
       </c>
       <c r="H18">
         <v>0.6523596966230656</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9969841556453645</v>
+        <v>0.9969841556453503</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.203609716995572</v>
+        <v>5.203609716995743</v>
       </c>
       <c r="C19">
-        <v>1.239466363643089</v>
+        <v>1.239466363643317</v>
       </c>
       <c r="D19">
-        <v>0.04421230058667192</v>
+        <v>0.04421230058675008</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.843675192047883</v>
+        <v>1.843675192047897</v>
       </c>
       <c r="G19">
-        <v>1.223583738306885</v>
+        <v>1.2235837383069</v>
       </c>
       <c r="H19">
-        <v>0.647685641020459</v>
+        <v>0.6476856410204874</v>
       </c>
       <c r="I19">
-        <v>0.3459873019410296</v>
+        <v>0.3459873019410509</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>5.420188337859315</v>
       </c>
       <c r="C20">
-        <v>1.290804388171466</v>
+        <v>1.290804388171239</v>
       </c>
       <c r="D20">
-        <v>0.04581615220654101</v>
+        <v>0.04581615220644153</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>1.918095694265716</v>
       </c>
       <c r="G20">
-        <v>1.272142803191727</v>
+        <v>1.272142803191741</v>
       </c>
       <c r="H20">
-        <v>0.6689934438979819</v>
+        <v>0.6689934438979677</v>
       </c>
       <c r="I20">
         <v>0.3617654438134892</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.030955210832062</v>
+        <v>1.030955210832033</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,31 +1137,31 @@
         <v>6.157955611179887</v>
       </c>
       <c r="C21">
-        <v>1.46587648690587</v>
+        <v>1.465876486906041</v>
       </c>
       <c r="D21">
-        <v>0.0512426342246215</v>
+        <v>0.05124263422472097</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.178682454362928</v>
+        <v>2.178682454362942</v>
       </c>
       <c r="G21">
-        <v>1.443000359691965</v>
+        <v>1.443000359691951</v>
       </c>
       <c r="H21">
         <v>0.7457845675299097</v>
       </c>
       <c r="I21">
-        <v>0.4165535454431435</v>
+        <v>0.4165535454431009</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.181023974349387</v>
+        <v>1.181023974349444</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.649021276311657</v>
+        <v>6.64902127631143</v>
       </c>
       <c r="C22">
-        <v>1.582582971420607</v>
+        <v>1.58258297142055</v>
       </c>
       <c r="D22">
-        <v>0.05482373509836691</v>
+        <v>0.05482373509824612</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1187,13 +1187,13 @@
         <v>2.358003259177849</v>
       </c>
       <c r="G22">
-        <v>1.561244224735745</v>
+        <v>1.561244224735759</v>
       </c>
       <c r="H22">
         <v>0.8003802446981041</v>
       </c>
       <c r="I22">
-        <v>0.4539093559057008</v>
+        <v>0.4539093559057434</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.386022179568556</v>
+        <v>6.386022179568613</v>
       </c>
       <c r="C23">
         <v>1.520060327118756</v>
       </c>
       <c r="D23">
-        <v>0.05290882579321732</v>
+        <v>0.05290882579321021</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.261392084506355</v>
+        <v>2.261392084506369</v>
       </c>
       <c r="G23">
-        <v>1.497475613119519</v>
+        <v>1.497475613119533</v>
       </c>
       <c r="H23">
-        <v>0.7708013605789006</v>
+        <v>0.7708013605788935</v>
       </c>
       <c r="I23">
-        <v>0.4338145201502002</v>
+        <v>0.4338145201502144</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.227871481303737</v>
+        <v>1.227871481303765</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>5.408260147392184</v>
       </c>
       <c r="C24">
-        <v>1.287976284241154</v>
+        <v>1.287976284240983</v>
       </c>
       <c r="D24">
         <v>0.04572794950797743</v>
@@ -1260,22 +1260,22 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.913971936286643</v>
+        <v>1.913971936286615</v>
       </c>
       <c r="G24">
-        <v>1.269449156688594</v>
+        <v>1.269449156688609</v>
       </c>
       <c r="H24">
-        <v>0.6678050186951836</v>
+        <v>0.6678050186951694</v>
       </c>
       <c r="I24">
-        <v>0.3608928324495579</v>
+        <v>0.3608928324495508</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.02854744679216</v>
+        <v>1.028547446792174</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.383311907648306</v>
+        <v>4.383311907648419</v>
       </c>
       <c r="C25">
-        <v>1.045227134374869</v>
+        <v>1.045227134374841</v>
       </c>
       <c r="D25">
-        <v>0.03809098765647434</v>
+        <v>0.03809098765638197</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1301,10 +1301,10 @@
         <v>1.570804756250212</v>
       </c>
       <c r="G25">
-        <v>1.046581324003824</v>
+        <v>1.046581324003839</v>
       </c>
       <c r="H25">
-        <v>0.5723494108295029</v>
+        <v>0.5723494108294886</v>
       </c>
       <c r="I25">
         <v>0.2875012548667613</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8238762043629606</v>
+        <v>0.823876204362918</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_40/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.64614674994084</v>
+        <v>3.646146749940783</v>
       </c>
       <c r="C2">
-        <v>0.8709071611420143</v>
+        <v>0.8709071611420995</v>
       </c>
       <c r="D2">
-        <v>0.0325232919794729</v>
+        <v>0.03252329197945869</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -430,16 +430,16 @@
         <v>0.8975094514710094</v>
       </c>
       <c r="H2">
-        <v>0.5124397970354835</v>
+        <v>0.5124397970354977</v>
       </c>
       <c r="I2">
-        <v>0.2367087862959494</v>
+        <v>0.2367087862959849</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6794356179739225</v>
+        <v>0.679435617973958</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.15411512079055</v>
+        <v>3.154115120790436</v>
       </c>
       <c r="C3">
-        <v>0.7546447960923217</v>
+        <v>0.7546447960924638</v>
       </c>
       <c r="D3">
-        <v>0.02876879345782868</v>
+        <v>0.02876879345797079</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.191213107663032</v>
+        <v>1.191213107663017</v>
       </c>
       <c r="G3">
-        <v>0.8038376033658921</v>
+        <v>0.8038376033658992</v>
       </c>
       <c r="H3">
         <v>0.4770254374016929</v>
       </c>
       <c r="I3">
-        <v>0.2037839556967995</v>
+        <v>0.2037839556967853</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.584366563768512</v>
+        <v>0.5843665637685262</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.854772453174803</v>
+        <v>2.854772453174974</v>
       </c>
       <c r="C4">
-        <v>0.6839348580757303</v>
+        <v>0.6839348580753608</v>
       </c>
       <c r="D4">
-        <v>0.02646837350709319</v>
+        <v>0.02646837350727083</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.104838240718678</v>
+        <v>1.104838240718649</v>
       </c>
       <c r="G4">
-        <v>0.7493734562494865</v>
+        <v>0.7493734562494936</v>
       </c>
       <c r="H4">
-        <v>0.4574712390498661</v>
+        <v>0.4574712390498519</v>
       </c>
       <c r="I4">
-        <v>0.1841578823801342</v>
+        <v>0.1841578823801235</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5270774125817468</v>
+        <v>0.5270774125817255</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,10 +526,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.733356551493216</v>
+        <v>2.733356551493273</v>
       </c>
       <c r="C5">
-        <v>0.6552567627492465</v>
+        <v>0.6552567627491328</v>
       </c>
       <c r="D5">
         <v>0.02553158622061602</v>
@@ -538,16 +538,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.070568974436114</v>
+        <v>1.070568974436142</v>
       </c>
       <c r="G5">
-        <v>0.7278683853886747</v>
+        <v>0.7278683853886605</v>
       </c>
       <c r="H5">
-        <v>0.4500039173236985</v>
+        <v>0.4500039173236772</v>
       </c>
       <c r="I5">
-        <v>0.1762886250234459</v>
+        <v>0.1762886250234494</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.71322637955916</v>
+        <v>2.713226379559103</v>
       </c>
       <c r="C6">
-        <v>0.6505021363622632</v>
+        <v>0.6505021363620358</v>
       </c>
       <c r="D6">
-        <v>0.02537605732884174</v>
+        <v>0.02537605732895543</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.064931742484887</v>
+        <v>1.064931742484873</v>
       </c>
       <c r="G6">
         <v>0.7243369848555616</v>
       </c>
       <c r="H6">
-        <v>0.4487928724610839</v>
+        <v>0.4487928724610768</v>
       </c>
       <c r="I6">
         <v>0.174989159037704</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5001380261778365</v>
+        <v>0.5001380261778223</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,10 +605,10 @@
         <v>2.85313285306529</v>
       </c>
       <c r="C7">
-        <v>0.6835475830417295</v>
+        <v>0.6835475830415874</v>
       </c>
       <c r="D7">
-        <v>0.02645573773250476</v>
+        <v>0.02645573773241949</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -617,19 +617,19 @@
         <v>1.104372446441616</v>
       </c>
       <c r="G7">
-        <v>0.7490807373269277</v>
+        <v>0.7490807373269135</v>
       </c>
       <c r="H7">
-        <v>0.4573685654288084</v>
+        <v>0.4573685654288155</v>
       </c>
       <c r="I7">
-        <v>0.1840512592719463</v>
+        <v>0.184051259271957</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5267648003254877</v>
+        <v>0.5267648003255161</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.475839742500796</v>
+        <v>3.475839742500682</v>
       </c>
       <c r="C8">
-        <v>0.8306587454402177</v>
+        <v>0.8306587454402461</v>
       </c>
       <c r="D8">
-        <v>0.03122736995776165</v>
+        <v>0.0312273699576977</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0.8645293280276434</v>
       </c>
       <c r="H8">
-        <v>0.499743087373588</v>
+        <v>0.4997430873735809</v>
       </c>
       <c r="I8">
         <v>0.2252213409806103</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6464050747627681</v>
+        <v>0.6464050747627539</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,10 +681,10 @@
         <v>4.72535731013545</v>
       </c>
       <c r="C9">
-        <v>1.126183150607176</v>
+        <v>1.126183150607659</v>
       </c>
       <c r="D9">
-        <v>0.04065259211473915</v>
+        <v>0.04065259211473204</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -696,16 +696,16 @@
         <v>1.119026029425186</v>
       </c>
       <c r="H9">
-        <v>0.6027046641972902</v>
+        <v>0.6027046641972973</v>
       </c>
       <c r="I9">
-        <v>0.3116416022476542</v>
+        <v>0.3116416022476329</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8916886923393719</v>
+        <v>0.8916886923393434</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.670882952167915</v>
+        <v>5.670882952168085</v>
       </c>
       <c r="C10">
-        <v>1.350260185245133</v>
+        <v>1.350260185244963</v>
       </c>
       <c r="D10">
-        <v>0.0476664296196887</v>
+        <v>0.04766642961957501</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.005430636655504</v>
+        <v>2.005430636655518</v>
       </c>
       <c r="G10">
-        <v>1.329267340520474</v>
+        <v>1.329267340520488</v>
       </c>
       <c r="H10">
         <v>0.6943666776212751</v>
       </c>
       <c r="I10">
-        <v>0.380202487648873</v>
+        <v>0.3802024876488872</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.081695759610653</v>
+        <v>1.081695759610639</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.109661089090935</v>
+        <v>6.109661089091105</v>
       </c>
       <c r="C11">
-        <v>1.454406710143871</v>
+        <v>1.454406710143758</v>
       </c>
       <c r="D11">
-        <v>0.05088913144135176</v>
+        <v>0.05088913144124518</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -769,13 +769,13 @@
         <v>2.161296839366116</v>
       </c>
       <c r="G11">
-        <v>1.431563937247248</v>
+        <v>1.431563937247262</v>
       </c>
       <c r="H11">
-        <v>0.7405633712787463</v>
+        <v>0.7405633712787534</v>
       </c>
       <c r="I11">
-        <v>0.4129180562432353</v>
+        <v>0.4129180562431998</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.277317270980234</v>
+        <v>6.277317270980291</v>
       </c>
       <c r="C12">
-        <v>1.494230408067949</v>
+        <v>1.494230408067665</v>
       </c>
       <c r="D12">
-        <v>0.05211531334249031</v>
+        <v>0.05211531334239083</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.22184494255373</v>
+        <v>2.221844942553716</v>
       </c>
       <c r="G12">
-        <v>1.471414704534581</v>
+        <v>1.471414704534595</v>
       </c>
       <c r="H12">
         <v>0.7588035454654189</v>
       </c>
       <c r="I12">
-        <v>0.4255682210233047</v>
+        <v>0.4255682210233118</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.205515310527318</v>
+        <v>1.205515310527304</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.241138309561279</v>
+        <v>6.241138309561109</v>
       </c>
       <c r="C13">
-        <v>1.485635328770343</v>
+        <v>1.485635328770172</v>
       </c>
       <c r="D13">
-        <v>0.05185095349978042</v>
+        <v>0.05185095349977331</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -845,19 +845,19 @@
         <v>2.208733234017203</v>
       </c>
       <c r="G13">
-        <v>1.462779886817543</v>
+        <v>1.462779886817557</v>
       </c>
       <c r="H13">
-        <v>0.7548402570186425</v>
+        <v>0.7548402570186497</v>
       </c>
       <c r="I13">
-        <v>0.4228314133048201</v>
+        <v>0.4228314133048272</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.198085652606977</v>
+        <v>1.198085652606949</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.123422596284627</v>
+        <v>6.123422596284513</v>
       </c>
       <c r="C14">
-        <v>1.45767487869108</v>
+        <v>1.457674878691193</v>
       </c>
       <c r="D14">
-        <v>0.05098988612071764</v>
+        <v>0.05098988612081712</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.166246259994892</v>
+        <v>2.166246259994907</v>
       </c>
       <c r="G14">
-        <v>1.434819197639655</v>
+        <v>1.434819197639683</v>
       </c>
       <c r="H14">
-        <v>0.7420484190948002</v>
+        <v>0.7420484190947931</v>
       </c>
       <c r="I14">
-        <v>0.4139532886457502</v>
+        <v>0.4139532886457218</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.173949306748256</v>
+        <v>1.173949306748227</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.05152194207318</v>
+        <v>6.051521942073236</v>
       </c>
       <c r="C15">
-        <v>1.440600691063139</v>
+        <v>1.440600691063651</v>
       </c>
       <c r="D15">
-        <v>0.05046325337511348</v>
+        <v>0.05046325337501401</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.14042728192841</v>
+        <v>2.140427281928396</v>
       </c>
       <c r="G15">
-        <v>1.417842464157133</v>
+        <v>1.417842464157147</v>
       </c>
       <c r="H15">
-        <v>0.7343134624178163</v>
+        <v>0.7343134624177949</v>
       </c>
       <c r="I15">
-        <v>0.4085505904953379</v>
+        <v>0.4085505904953521</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.159235115847636</v>
+        <v>1.15923511584765</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.642402982303906</v>
+        <v>5.642402982304134</v>
       </c>
       <c r="C16">
-        <v>1.343504041931624</v>
+        <v>1.34350404193134</v>
       </c>
       <c r="D16">
         <v>0.0474565628154906</v>
@@ -959,19 +959,19 @@
         <v>1.995445385084821</v>
       </c>
       <c r="G16">
-        <v>1.322728806059061</v>
+        <v>1.322728806059075</v>
       </c>
       <c r="H16">
-        <v>0.691446338084134</v>
+        <v>0.6914463380841269</v>
       </c>
       <c r="I16">
-        <v>0.3780986119699747</v>
+        <v>0.3780986119699605</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.075918294628153</v>
+        <v>1.075918294628138</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.393809378414176</v>
+        <v>5.393809378414062</v>
       </c>
       <c r="C17">
-        <v>1.284550191822802</v>
+        <v>1.284550191822689</v>
       </c>
       <c r="D17">
-        <v>0.04562107340619548</v>
+        <v>0.04562107340628074</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.908979968584148</v>
+        <v>1.908979968584191</v>
       </c>
       <c r="G17">
-        <v>1.266188843762407</v>
+        <v>1.266188843762421</v>
       </c>
       <c r="H17">
-        <v>0.6663675762866106</v>
+        <v>0.6663675762866248</v>
       </c>
       <c r="I17">
         <v>0.3598362456323514</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.251622165478409</v>
+        <v>5.251622165478238</v>
       </c>
       <c r="C18">
-        <v>1.250845207284442</v>
+        <v>1.250845207284385</v>
       </c>
       <c r="D18">
-        <v>0.04456828581096062</v>
+        <v>0.04456828581118089</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.860089900087218</v>
+        <v>1.860089900087232</v>
       </c>
       <c r="G18">
-        <v>1.234284574486963</v>
+        <v>1.234284574486978</v>
       </c>
       <c r="H18">
         <v>0.6523596966230656</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9969841556453503</v>
+        <v>0.9969841556453645</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.203609716995743</v>
+        <v>5.203609716995572</v>
       </c>
       <c r="C19">
-        <v>1.239466363643317</v>
+        <v>1.239466363643089</v>
       </c>
       <c r="D19">
-        <v>0.04421230058675008</v>
+        <v>0.04421230058667192</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.843675192047897</v>
+        <v>1.843675192047883</v>
       </c>
       <c r="G19">
-        <v>1.2235837383069</v>
+        <v>1.223583738306885</v>
       </c>
       <c r="H19">
-        <v>0.6476856410204874</v>
+        <v>0.647685641020459</v>
       </c>
       <c r="I19">
-        <v>0.3459873019410509</v>
+        <v>0.3459873019410296</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>5.420188337859315</v>
       </c>
       <c r="C20">
-        <v>1.290804388171239</v>
+        <v>1.290804388171466</v>
       </c>
       <c r="D20">
-        <v>0.04581615220644153</v>
+        <v>0.04581615220654101</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>1.918095694265716</v>
       </c>
       <c r="G20">
-        <v>1.272142803191741</v>
+        <v>1.272142803191727</v>
       </c>
       <c r="H20">
-        <v>0.6689934438979677</v>
+        <v>0.6689934438979819</v>
       </c>
       <c r="I20">
         <v>0.3617654438134892</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.030955210832033</v>
+        <v>1.030955210832062</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,31 +1137,31 @@
         <v>6.157955611179887</v>
       </c>
       <c r="C21">
-        <v>1.465876486906041</v>
+        <v>1.46587648690587</v>
       </c>
       <c r="D21">
-        <v>0.05124263422472097</v>
+        <v>0.0512426342246215</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.178682454362942</v>
+        <v>2.178682454362928</v>
       </c>
       <c r="G21">
-        <v>1.443000359691951</v>
+        <v>1.443000359691965</v>
       </c>
       <c r="H21">
         <v>0.7457845675299097</v>
       </c>
       <c r="I21">
-        <v>0.4165535454431009</v>
+        <v>0.4165535454431435</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.181023974349444</v>
+        <v>1.181023974349387</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.64902127631143</v>
+        <v>6.649021276311657</v>
       </c>
       <c r="C22">
-        <v>1.58258297142055</v>
+        <v>1.582582971420607</v>
       </c>
       <c r="D22">
-        <v>0.05482373509824612</v>
+        <v>0.05482373509836691</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1187,13 +1187,13 @@
         <v>2.358003259177849</v>
       </c>
       <c r="G22">
-        <v>1.561244224735759</v>
+        <v>1.561244224735745</v>
       </c>
       <c r="H22">
         <v>0.8003802446981041</v>
       </c>
       <c r="I22">
-        <v>0.4539093559057434</v>
+        <v>0.4539093559057008</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.386022179568613</v>
+        <v>6.386022179568556</v>
       </c>
       <c r="C23">
         <v>1.520060327118756</v>
       </c>
       <c r="D23">
-        <v>0.05290882579321021</v>
+        <v>0.05290882579321732</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.261392084506369</v>
+        <v>2.261392084506355</v>
       </c>
       <c r="G23">
-        <v>1.497475613119533</v>
+        <v>1.497475613119519</v>
       </c>
       <c r="H23">
-        <v>0.7708013605788935</v>
+        <v>0.7708013605789006</v>
       </c>
       <c r="I23">
-        <v>0.4338145201502144</v>
+        <v>0.4338145201502002</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.227871481303765</v>
+        <v>1.227871481303737</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>5.408260147392184</v>
       </c>
       <c r="C24">
-        <v>1.287976284240983</v>
+        <v>1.287976284241154</v>
       </c>
       <c r="D24">
         <v>0.04572794950797743</v>
@@ -1260,22 +1260,22 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.913971936286615</v>
+        <v>1.913971936286643</v>
       </c>
       <c r="G24">
-        <v>1.269449156688609</v>
+        <v>1.269449156688594</v>
       </c>
       <c r="H24">
-        <v>0.6678050186951694</v>
+        <v>0.6678050186951836</v>
       </c>
       <c r="I24">
-        <v>0.3608928324495508</v>
+        <v>0.3608928324495579</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.028547446792174</v>
+        <v>1.02854744679216</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.383311907648419</v>
+        <v>4.383311907648306</v>
       </c>
       <c r="C25">
-        <v>1.045227134374841</v>
+        <v>1.045227134374869</v>
       </c>
       <c r="D25">
-        <v>0.03809098765638197</v>
+        <v>0.03809098765647434</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1301,10 +1301,10 @@
         <v>1.570804756250212</v>
       </c>
       <c r="G25">
-        <v>1.046581324003839</v>
+        <v>1.046581324003824</v>
       </c>
       <c r="H25">
-        <v>0.5723494108294886</v>
+        <v>0.5723494108295029</v>
       </c>
       <c r="I25">
         <v>0.2875012548667613</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.823876204362918</v>
+        <v>0.8238762043629606</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_40/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.646146749940783</v>
+        <v>3.646024272902082</v>
       </c>
       <c r="C2">
-        <v>0.8709071611420995</v>
+        <v>0.8705090769647938</v>
       </c>
       <c r="D2">
-        <v>0.03252329197945869</v>
+        <v>0.03262350898586419</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.33860165423603</v>
+        <v>1.336820062556313</v>
       </c>
       <c r="G2">
-        <v>0.8975094514710094</v>
+        <v>0.2873548299116067</v>
       </c>
       <c r="H2">
-        <v>0.5124397970354977</v>
+        <v>0.6126254183692907</v>
       </c>
       <c r="I2">
-        <v>0.2367087862959849</v>
+        <v>0.511498230944575</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2366832844350384</v>
       </c>
       <c r="K2">
-        <v>0.679435617973958</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.6794552714035333</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.154115120790436</v>
+        <v>3.154042985322008</v>
       </c>
       <c r="C3">
-        <v>0.7546447960924638</v>
+        <v>0.7543122569043135</v>
       </c>
       <c r="D3">
-        <v>0.02876879345797079</v>
+        <v>0.02885545663308164</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.191213107663017</v>
+        <v>1.189641003860402</v>
       </c>
       <c r="G3">
-        <v>0.8038376033658992</v>
+        <v>0.253288910725388</v>
       </c>
       <c r="H3">
-        <v>0.4770254374016929</v>
+        <v>0.5532957944759644</v>
       </c>
       <c r="I3">
-        <v>0.2037839556967853</v>
+        <v>0.4761857134748197</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2037627524668935</v>
       </c>
       <c r="K3">
-        <v>0.5843665637685262</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.5843882708899315</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.854772453174974</v>
+        <v>2.854726516754965</v>
       </c>
       <c r="C4">
-        <v>0.6839348580753608</v>
+        <v>0.6836410187752335</v>
       </c>
       <c r="D4">
-        <v>0.02646837350727083</v>
+        <v>0.02654666083709145</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.104838240718649</v>
+        <v>1.103390217176496</v>
       </c>
       <c r="G4">
-        <v>0.7493734562494936</v>
+        <v>0.2333521387900603</v>
       </c>
       <c r="H4">
-        <v>0.4574712390498519</v>
+        <v>0.5189324629206737</v>
       </c>
       <c r="I4">
-        <v>0.1841578823801235</v>
+        <v>0.4566918215665297</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1841391372028696</v>
       </c>
       <c r="K4">
-        <v>0.5270774125817255</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.5270996505404995</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.733356551493273</v>
+        <v>2.73332026912459</v>
       </c>
       <c r="C5">
-        <v>0.6552567627491328</v>
+        <v>0.6549783676534844</v>
       </c>
       <c r="D5">
-        <v>0.02553158622061602</v>
+        <v>0.02560644593161499</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.070568974436142</v>
+        <v>1.069170534276964</v>
       </c>
       <c r="G5">
-        <v>0.7278683853886605</v>
+        <v>0.2254476690659288</v>
       </c>
       <c r="H5">
-        <v>0.4500039173236772</v>
+        <v>0.5053974983686444</v>
       </c>
       <c r="I5">
-        <v>0.1762886250234494</v>
+        <v>0.449248592432042</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1762708461091371</v>
       </c>
       <c r="K5">
-        <v>0.5039632495117559</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.5039855496408592</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.713226379559103</v>
+        <v>2.713191642896618</v>
       </c>
       <c r="C6">
-        <v>0.6505021363620358</v>
+        <v>0.6502262877486089</v>
       </c>
       <c r="D6">
-        <v>0.02537605732895543</v>
+        <v>0.02545034699270587</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.064931742484873</v>
+        <v>1.063541480816355</v>
       </c>
       <c r="G6">
-        <v>0.7243369848555616</v>
+        <v>0.2241476897422245</v>
       </c>
       <c r="H6">
-        <v>0.4487928724610768</v>
+        <v>0.5031769082376556</v>
       </c>
       <c r="I6">
-        <v>0.174989159037704</v>
+        <v>0.4480415210496389</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1749715386980455</v>
       </c>
       <c r="K6">
-        <v>0.5001380261778223</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.5001603281034193</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.85313285306529</v>
+        <v>2.853087050781141</v>
       </c>
       <c r="C7">
-        <v>0.6835475830415874</v>
+        <v>0.6832539532711621</v>
       </c>
       <c r="D7">
-        <v>0.02645573773241949</v>
+        <v>0.02653397889570641</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.104372446441616</v>
+        <v>1.10292509536562</v>
       </c>
       <c r="G7">
-        <v>0.7490807373269135</v>
+        <v>0.2332446792111256</v>
       </c>
       <c r="H7">
-        <v>0.4573685654288155</v>
+        <v>0.5187480934374307</v>
       </c>
       <c r="I7">
-        <v>0.184051259271957</v>
+        <v>0.4565894747261297</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1840325272571697</v>
       </c>
       <c r="K7">
-        <v>0.5267648003255161</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.526787039710932</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.475839742500682</v>
+        <v>3.475735704702799</v>
       </c>
       <c r="C8">
-        <v>0.8306587454402461</v>
+        <v>0.8302836214737965</v>
       </c>
       <c r="D8">
-        <v>0.0312273699576977</v>
+        <v>0.03132292419894611</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.286858865185152</v>
+        <v>1.285150552529004</v>
       </c>
       <c r="G8">
-        <v>0.8645293280276434</v>
+        <v>0.2753888698343872</v>
       </c>
       <c r="H8">
-        <v>0.4997430873735809</v>
+        <v>0.5917078147742671</v>
       </c>
       <c r="I8">
-        <v>0.2252213409806103</v>
+        <v>0.4988371472991346</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2251973656090556</v>
       </c>
       <c r="K8">
-        <v>0.6464050747627539</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.6464256069420244</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.72535731013545</v>
+        <v>4.725093242881201</v>
       </c>
       <c r="C9">
-        <v>1.126183150607659</v>
+        <v>1.125632740733295</v>
       </c>
       <c r="D9">
-        <v>0.04065259211473204</v>
+        <v>0.04078171598158775</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.682813682903088</v>
+        <v>1.680549070071507</v>
       </c>
       <c r="G9">
-        <v>1.119026029425186</v>
+        <v>0.3671361845805592</v>
       </c>
       <c r="H9">
-        <v>0.6027046641972973</v>
+        <v>0.753726626842834</v>
       </c>
       <c r="I9">
-        <v>0.3116416022476329</v>
+        <v>0.601528320894694</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.3116053375180172</v>
       </c>
       <c r="K9">
-        <v>0.8916886923393434</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.8916984918306952</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.670882952168085</v>
+        <v>5.670459441076503</v>
       </c>
       <c r="C10">
-        <v>1.350260185244963</v>
+        <v>1.349566302154017</v>
       </c>
       <c r="D10">
-        <v>0.04766642961957501</v>
+        <v>0.04782005543773948</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.005430636655518</v>
+        <v>2.00271617800982</v>
       </c>
       <c r="G10">
-        <v>1.329267340520488</v>
+        <v>0.4421817536620125</v>
       </c>
       <c r="H10">
-        <v>0.6943666776212751</v>
+        <v>0.8883358566320396</v>
       </c>
       <c r="I10">
-        <v>0.3802024876488872</v>
+        <v>0.6929718884000593</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3801549569868854</v>
       </c>
       <c r="K10">
-        <v>1.081695759610639</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>1.081690431618597</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.109661089091105</v>
+        <v>6.109152061299426</v>
       </c>
       <c r="C11">
-        <v>1.454406710143758</v>
+        <v>1.453642920266191</v>
       </c>
       <c r="D11">
-        <v>0.05088913144124518</v>
+        <v>0.05105388618779472</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.161296839366116</v>
+        <v>2.158364920258251</v>
       </c>
       <c r="G11">
-        <v>1.431563937247262</v>
+        <v>0.4785262110447235</v>
       </c>
       <c r="H11">
-        <v>0.7405633712787534</v>
+        <v>0.9540059085943824</v>
       </c>
       <c r="I11">
-        <v>0.4129180562431998</v>
+        <v>0.7390630816673749</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.4128646034680656</v>
       </c>
       <c r="K11">
-        <v>1.171131408988117</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>1.171116817836534</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.277317270980291</v>
+        <v>6.276773589136724</v>
       </c>
       <c r="C12">
-        <v>1.494230408067665</v>
+        <v>1.493439330801777</v>
       </c>
       <c r="D12">
-        <v>0.05211531334239083</v>
+        <v>0.05228428140028996</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.221844942553716</v>
+        <v>2.218828432239206</v>
       </c>
       <c r="G12">
-        <v>1.471414704534595</v>
+        <v>0.4926594106165112</v>
       </c>
       <c r="H12">
-        <v>0.7588035454654189</v>
+        <v>0.9796140083766858</v>
       </c>
       <c r="I12">
-        <v>0.4255682210233118</v>
+        <v>0.7572622357514973</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.4255123762715627</v>
       </c>
       <c r="K12">
-        <v>1.205515310527304</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>1.205496781372958</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.241138309561109</v>
+        <v>6.24060219936058</v>
       </c>
       <c r="C13">
-        <v>1.485635328770172</v>
+        <v>1.484850167241291</v>
       </c>
       <c r="D13">
-        <v>0.05185095349977331</v>
+        <v>0.05201901416388921</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.208733234017203</v>
+        <v>2.205735048915955</v>
       </c>
       <c r="G13">
-        <v>1.462779886817557</v>
+        <v>0.4895981726965175</v>
       </c>
       <c r="H13">
-        <v>0.7548402570186497</v>
+        <v>0.9740641302356892</v>
       </c>
       <c r="I13">
-        <v>0.4228314133048272</v>
+        <v>0.7533078326671756</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.4227760910038754</v>
       </c>
       <c r="K13">
-        <v>1.198085652606949</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>1.198067992327481</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.123422596284513</v>
+        <v>6.122910765586255</v>
       </c>
       <c r="C14">
-        <v>1.457674878691193</v>
+        <v>1.456908861147497</v>
       </c>
       <c r="D14">
-        <v>0.05098988612081712</v>
+        <v>0.05115498750946301</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.166246259994907</v>
+        <v>2.163307429047961</v>
       </c>
       <c r="G14">
-        <v>1.434819197639683</v>
+        <v>0.4796812037189682</v>
       </c>
       <c r="H14">
-        <v>0.7420484190947931</v>
+        <v>0.9560972262433438</v>
       </c>
       <c r="I14">
-        <v>0.4139532886457218</v>
+        <v>0.7405447773743461</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.413899642306724</v>
       </c>
       <c r="K14">
-        <v>1.173949306748227</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>1.173934400813778</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.051521942073236</v>
+        <v>6.051024674236771</v>
       </c>
       <c r="C15">
-        <v>1.440600691063651</v>
+        <v>1.439846288741762</v>
       </c>
       <c r="D15">
-        <v>0.05046325337501401</v>
+        <v>0.05062654204167671</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.140427281928396</v>
+        <v>2.137524501758264</v>
       </c>
       <c r="G15">
-        <v>1.417842464157147</v>
+        <v>0.4736567116110137</v>
       </c>
       <c r="H15">
-        <v>0.7343134624177949</v>
+        <v>0.9451916775139182</v>
       </c>
       <c r="I15">
-        <v>0.4085505904953521</v>
+        <v>0.7328273054245145</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4084979500908403</v>
       </c>
       <c r="K15">
-        <v>1.15923511584765</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>1.159221838045312</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.642402982304134</v>
+        <v>5.641984765879727</v>
       </c>
       <c r="C16">
-        <v>1.34350404193134</v>
+        <v>1.342814621997832</v>
       </c>
       <c r="D16">
-        <v>0.0474565628154906</v>
+        <v>0.04760946111200326</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.995445385084821</v>
+        <v>1.992744847475649</v>
       </c>
       <c r="G16">
-        <v>1.322728806059075</v>
+        <v>0.4398553178692453</v>
       </c>
       <c r="H16">
-        <v>0.6914463380841269</v>
+        <v>0.8841418488102306</v>
       </c>
       <c r="I16">
-        <v>0.3780986119699605</v>
+        <v>0.6900583049549596</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3780514495143947</v>
       </c>
       <c r="K16">
-        <v>1.075918294628138</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>1.075913517026294</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.393809378414062</v>
+        <v>5.393436068010146</v>
       </c>
       <c r="C17">
-        <v>1.284550191822689</v>
+        <v>1.283899350911042</v>
       </c>
       <c r="D17">
-        <v>0.04562107340628074</v>
+        <v>0.04576759418361576</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.908979968584191</v>
+        <v>1.906399954279152</v>
       </c>
       <c r="G17">
-        <v>1.266188843762421</v>
+        <v>0.4197197313576169</v>
       </c>
       <c r="H17">
-        <v>0.6663675762866248</v>
+        <v>0.8478942583430324</v>
       </c>
       <c r="I17">
-        <v>0.3598362456323514</v>
+        <v>0.6650380462192018</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3597922174370467</v>
       </c>
       <c r="K17">
-        <v>1.025631279421518</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>1.025631050010304</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.251622165478238</v>
+        <v>5.251273489843413</v>
       </c>
       <c r="C18">
-        <v>1.250845207284385</v>
+        <v>1.250216129534806</v>
       </c>
       <c r="D18">
-        <v>0.04456828581118089</v>
+        <v>0.0447111366993127</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.860089900087232</v>
+        <v>1.857578028488447</v>
       </c>
       <c r="G18">
-        <v>1.234284574486978</v>
+        <v>0.408342308572287</v>
       </c>
       <c r="H18">
-        <v>0.6523596966230656</v>
+        <v>0.8274561834631129</v>
       </c>
       <c r="I18">
-        <v>0.3494730756520568</v>
+        <v>0.6510632522761881</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3494307776940957</v>
       </c>
       <c r="K18">
-        <v>0.9969841556453645</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.9969863243532018</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.203609716995572</v>
+        <v>5.203269188279137</v>
       </c>
       <c r="C19">
-        <v>1.239466363643089</v>
+        <v>1.238844585363665</v>
       </c>
       <c r="D19">
-        <v>0.04421230058667192</v>
+        <v>0.0443539085762481</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.843675192047883</v>
+        <v>1.841186200876578</v>
       </c>
       <c r="G19">
-        <v>1.223583738306885</v>
+        <v>0.4045236526073381</v>
       </c>
       <c r="H19">
-        <v>0.647685641020459</v>
+        <v>0.8206038306051511</v>
       </c>
       <c r="I19">
-        <v>0.3459873019410296</v>
+        <v>0.6464003072901079</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3459455782809542</v>
       </c>
       <c r="K19">
-        <v>0.9873298537408601</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.9873327993499288</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.420188337859315</v>
+        <v>5.419810373385928</v>
       </c>
       <c r="C20">
-        <v>1.290804388171466</v>
+        <v>1.290149485581992</v>
       </c>
       <c r="D20">
-        <v>0.04581615220654101</v>
+        <v>0.04596335204824697</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.918095694265716</v>
+        <v>1.915502974741543</v>
       </c>
       <c r="G20">
-        <v>1.272142803191727</v>
+        <v>0.4218417210494607</v>
       </c>
       <c r="H20">
-        <v>0.6689934438979819</v>
+        <v>0.8517096866695368</v>
       </c>
       <c r="I20">
-        <v>0.3617654438134892</v>
+        <v>0.6676577456717041</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.3617210896993228</v>
       </c>
       <c r="K20">
-        <v>1.030955210832062</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>1.030954520381002</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.157955611179887</v>
+        <v>6.157436714240305</v>
       </c>
       <c r="C21">
-        <v>1.46587648690587</v>
+        <v>1.46510486975086</v>
       </c>
       <c r="D21">
-        <v>0.0512426342246215</v>
+        <v>0.05140860483815146</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.178682454362928</v>
+        <v>2.175726254122907</v>
       </c>
       <c r="G21">
-        <v>1.443000359691965</v>
+        <v>0.4825835449700975</v>
       </c>
       <c r="H21">
-        <v>0.7457845675299097</v>
+        <v>0.9613535601000365</v>
       </c>
       <c r="I21">
-        <v>0.4165535454431435</v>
+        <v>0.7442725023561465</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.4164994112100899</v>
       </c>
       <c r="K21">
-        <v>1.181023974349387</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>1.181008271875683</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.649021276311657</v>
+        <v>6.648396788073285</v>
       </c>
       <c r="C22">
-        <v>1.582582971420607</v>
+        <v>1.581730233103428</v>
       </c>
       <c r="D22">
-        <v>0.05482373509836691</v>
+        <v>0.05500196860544548</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.358003259177849</v>
+        <v>2.354796180866714</v>
       </c>
       <c r="G22">
-        <v>1.561244224735745</v>
+        <v>0.5244709897329187</v>
       </c>
       <c r="H22">
-        <v>0.8003802446981041</v>
+        <v>1.037385891413663</v>
       </c>
       <c r="I22">
-        <v>0.4539093559057008</v>
+        <v>0.7987465650884076</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.4538479358209599</v>
       </c>
       <c r="K22">
-        <v>1.282162870652826</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>1.282134792462202</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.386022179568556</v>
+        <v>6.385455436145435</v>
       </c>
       <c r="C23">
-        <v>1.520060327118756</v>
+        <v>1.51925138409041</v>
       </c>
       <c r="D23">
-        <v>0.05290882579321732</v>
+        <v>0.05308051428753657</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.261392084506355</v>
+        <v>2.258320276653095</v>
       </c>
       <c r="G23">
-        <v>1.497475613119519</v>
+        <v>0.5018949162560489</v>
       </c>
       <c r="H23">
-        <v>0.7708013605789006</v>
+        <v>0.996367932768365</v>
       </c>
       <c r="I23">
-        <v>0.4338145201502002</v>
+        <v>0.7692332418420023</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.4337570844328411</v>
       </c>
       <c r="K23">
-        <v>1.227871481303737</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>1.227850277574447</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.408260147392184</v>
+        <v>5.407884290676805</v>
       </c>
       <c r="C24">
-        <v>1.287976284241154</v>
+        <v>1.287323219222458</v>
       </c>
       <c r="D24">
-        <v>0.04572794950797743</v>
+        <v>0.04587484235538852</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.913971936286643</v>
+        <v>1.911384964337714</v>
       </c>
       <c r="G24">
-        <v>1.269449156688594</v>
+        <v>0.4208817542251211</v>
       </c>
       <c r="H24">
-        <v>0.6678050186951836</v>
+        <v>0.8499834895854406</v>
       </c>
       <c r="I24">
-        <v>0.3608928324495579</v>
+        <v>0.6664721107880709</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3608486259040831</v>
       </c>
       <c r="K24">
-        <v>1.02854744679216</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>1.028546965445841</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.383311907648306</v>
+        <v>4.383097339827714</v>
       </c>
       <c r="C25">
-        <v>1.045227134374869</v>
+        <v>1.044726294458059</v>
       </c>
       <c r="D25">
-        <v>0.03809098765647434</v>
+        <v>0.03821106393341722</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.570804756250212</v>
+        <v>1.568696714394179</v>
       </c>
       <c r="G25">
-        <v>1.046581324003824</v>
+        <v>0.3411411443861283</v>
       </c>
       <c r="H25">
-        <v>0.5723494108295029</v>
+        <v>0.7074820058593048</v>
       </c>
       <c r="I25">
-        <v>0.2875012548667613</v>
+        <v>0.5712491525983907</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2874686203514898</v>
       </c>
       <c r="K25">
-        <v>0.8238762043629606</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>0.8238899477852186</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_40/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.646024272902082</v>
+        <v>3.698205700757285</v>
       </c>
       <c r="C2">
-        <v>0.8705090769647938</v>
+        <v>0.4596780903191302</v>
       </c>
       <c r="D2">
-        <v>0.03262350898586419</v>
+        <v>0.002946499069746977</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.336820062556313</v>
+        <v>2.946781290609081</v>
       </c>
       <c r="G2">
-        <v>0.2873548299116067</v>
+        <v>0.0008362392570540407</v>
       </c>
       <c r="H2">
-        <v>0.6126254183692907</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.511498230944575</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2366832844350384</v>
+        <v>0.07090400674240982</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.8725581932175714</v>
       </c>
       <c r="L2">
-        <v>0.6794552714035333</v>
+        <v>0.2868191737034635</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>1.730206468275298</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.154042985322008</v>
+        <v>3.263921686967478</v>
       </c>
       <c r="C3">
-        <v>0.7543122569043135</v>
+        <v>0.395468901633194</v>
       </c>
       <c r="D3">
-        <v>0.02885545663308164</v>
+        <v>0.002410042920564237</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.189641003860402</v>
+        <v>2.761038016163127</v>
       </c>
       <c r="G3">
-        <v>0.253288910725388</v>
+        <v>0.0008455214580820196</v>
       </c>
       <c r="H3">
-        <v>0.5532957944759644</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4761857134748197</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2037627524668935</v>
+        <v>0.07106275940751416</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7641896971139062</v>
       </c>
       <c r="L3">
-        <v>0.5843882708899315</v>
+        <v>0.2591880813784257</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>1.761372018554795</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.854726516754965</v>
+        <v>3.003273155149031</v>
       </c>
       <c r="C4">
-        <v>0.6836410187752335</v>
+        <v>0.3567273390865182</v>
       </c>
       <c r="D4">
-        <v>0.02654666083709145</v>
+        <v>0.00210558156383911</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.103390217176496</v>
+        <v>2.65256521967585</v>
       </c>
       <c r="G4">
-        <v>0.2333521387900603</v>
+        <v>0.0008513724043827872</v>
       </c>
       <c r="H4">
-        <v>0.5189324629206737</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4566918215665297</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1841391372028696</v>
+        <v>0.0712344216374774</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6990647194369473</v>
       </c>
       <c r="L4">
-        <v>0.5270996505404995</v>
+        <v>0.2426697134960705</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>1.782671277300096</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.73332026912459</v>
+        <v>2.898399424706383</v>
       </c>
       <c r="C5">
-        <v>0.6549783676534844</v>
+        <v>0.3410862705007105</v>
       </c>
       <c r="D5">
-        <v>0.02560644593161499</v>
+        <v>0.001986798605509321</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.069170534276964</v>
+        <v>2.609645090692254</v>
       </c>
       <c r="G5">
-        <v>0.2254476690659288</v>
+        <v>0.0008537966796599833</v>
       </c>
       <c r="H5">
-        <v>0.5053974983686444</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.449248592432042</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1762708461091371</v>
+        <v>0.07132231439462089</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6728394537846683</v>
       </c>
       <c r="L5">
-        <v>0.5039855496408592</v>
+        <v>0.2360403592757052</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>1.79186647632163</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.713191642896618</v>
+        <v>2.881061701154465</v>
       </c>
       <c r="C6">
-        <v>0.6502262877486089</v>
+        <v>0.3384972280680927</v>
       </c>
       <c r="D6">
-        <v>0.02545034699270587</v>
+        <v>0.00196736745368753</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.063541480816355</v>
+        <v>2.602592482118851</v>
       </c>
       <c r="G6">
-        <v>0.2241476897422245</v>
+        <v>0.0008542016935325328</v>
       </c>
       <c r="H6">
-        <v>0.5031769082376556</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4480415210496389</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1749715386980455</v>
+        <v>0.07133797256595642</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6685025600974654</v>
       </c>
       <c r="L6">
-        <v>0.5001603281034193</v>
+        <v>0.2349454327145821</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>1.793423686811579</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.853087050781141</v>
+        <v>3.001853565360875</v>
       </c>
       <c r="C7">
-        <v>0.6832539532711621</v>
+        <v>0.356515837154916</v>
       </c>
       <c r="D7">
-        <v>0.02653397889570641</v>
+        <v>0.00210395942582764</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.10292509536562</v>
+        <v>2.651981336352108</v>
       </c>
       <c r="G7">
-        <v>0.2332446792111256</v>
+        <v>0.0008514049347583599</v>
       </c>
       <c r="H7">
-        <v>0.5187480934374307</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4565894747261297</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1840325272571697</v>
+        <v>0.07123553525885029</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6987098188583047</v>
       </c>
       <c r="L7">
-        <v>0.526787039710932</v>
+        <v>0.2425799078201294</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>1.782793235199918</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.475735704702799</v>
+        <v>3.547113307736538</v>
       </c>
       <c r="C8">
-        <v>0.8302836214737965</v>
+        <v>0.4373809835153679</v>
       </c>
       <c r="D8">
-        <v>0.03132292419894611</v>
+        <v>0.002755731816176166</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.285150552529004</v>
+        <v>2.88150556191043</v>
       </c>
       <c r="G8">
-        <v>0.2753888698343872</v>
+        <v>0.0008394094409049924</v>
       </c>
       <c r="H8">
-        <v>0.5917078147742671</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4988371472991346</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2251973656090556</v>
+        <v>0.0709428969954331</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.8348729757389037</v>
       </c>
       <c r="L8">
-        <v>0.6464256069420244</v>
+        <v>0.2771925706837521</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>1.740485398624827</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.725093242881201</v>
+        <v>4.672401873715046</v>
       </c>
       <c r="C9">
-        <v>1.125632740733295</v>
+        <v>0.6026569362846033</v>
       </c>
       <c r="D9">
-        <v>0.04078171598158775</v>
+        <v>0.004282102346682137</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.680549070071507</v>
+        <v>3.381769641115255</v>
       </c>
       <c r="G9">
-        <v>0.3671361845805592</v>
+        <v>0.0008169978662318338</v>
       </c>
       <c r="H9">
-        <v>0.753726626842834</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.601528320894694</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3116053375180172</v>
+        <v>0.07099341656905622</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.115209591139319</v>
       </c>
       <c r="L9">
-        <v>0.8916984918306952</v>
+        <v>0.3491414756521607</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>1.676111460665652</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.670459441076503</v>
+        <v>5.546529633645832</v>
       </c>
       <c r="C10">
-        <v>1.349566302154017</v>
+        <v>0.7301911973925996</v>
       </c>
       <c r="D10">
-        <v>0.04782005543773948</v>
+        <v>0.005636665902056137</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.00271617800982</v>
+        <v>3.78922827152752</v>
       </c>
       <c r="G10">
-        <v>0.4421817536620125</v>
+        <v>0.0008010667303246158</v>
       </c>
       <c r="H10">
-        <v>0.8883358566320396</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6929718884000593</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3801549569868854</v>
+        <v>0.07146697270655622</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.332607059437109</v>
       </c>
       <c r="L10">
-        <v>1.081690431618597</v>
+        <v>0.4053105467022533</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>1.642389160453632</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.109152061299426</v>
+        <v>5.957914160546864</v>
       </c>
       <c r="C11">
-        <v>1.453642920266191</v>
+        <v>0.7900645197241261</v>
       </c>
       <c r="D11">
-        <v>0.05105388618779472</v>
+        <v>0.006325738944447323</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.158364920258251</v>
+        <v>3.985684933399739</v>
       </c>
       <c r="G11">
-        <v>0.4785262110447235</v>
+        <v>0.0007938985555854036</v>
       </c>
       <c r="H11">
-        <v>0.9540059085943824</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7390630816673749</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4128646034680656</v>
+        <v>0.071791581105078</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.434851477830449</v>
       </c>
       <c r="L11">
-        <v>1.171116817836534</v>
+        <v>0.4317953410151176</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>1.63058097731188</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.276773589136724</v>
+        <v>6.116002931293224</v>
       </c>
       <c r="C12">
-        <v>1.493439330801777</v>
+        <v>0.8130556243720548</v>
       </c>
       <c r="D12">
-        <v>0.05228428140028996</v>
+        <v>0.006599397870882484</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.218828432239206</v>
+        <v>4.061910020424563</v>
       </c>
       <c r="G12">
-        <v>0.4926594106165112</v>
+        <v>0.0007911919780097791</v>
       </c>
       <c r="H12">
-        <v>0.9796140083766858</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7572622357514973</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4255123762715627</v>
+        <v>0.07193159596391041</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.474133955470251</v>
       </c>
       <c r="L12">
-        <v>1.205496781372958</v>
+        <v>0.4419792639880882</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>1.62667494503313</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.24060219936058</v>
+        <v>6.081847344577909</v>
       </c>
       <c r="C13">
-        <v>1.484850167241291</v>
+        <v>0.8080890215481702</v>
       </c>
       <c r="D13">
-        <v>0.05201901416388921</v>
+        <v>0.00653985487652875</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.205735048915955</v>
+        <v>4.045408045259933</v>
       </c>
       <c r="G13">
-        <v>0.4895981726965175</v>
+        <v>0.0007917745994664671</v>
       </c>
       <c r="H13">
-        <v>0.9740641302356892</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7533078326671756</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4227760910038754</v>
+        <v>0.07190065687303715</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.46564720425026</v>
       </c>
       <c r="L13">
-        <v>1.198067992327481</v>
+        <v>0.4397787362812124</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>1.627490023993232</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.122910765586255</v>
+        <v>5.970871936253843</v>
       </c>
       <c r="C14">
-        <v>1.456908861147497</v>
+        <v>0.7919493105688673</v>
       </c>
       <c r="D14">
-        <v>0.05115498750946301</v>
+        <v>0.006347983851767935</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.163307429047961</v>
+        <v>3.99191785403633</v>
       </c>
       <c r="G14">
-        <v>0.4796812037189682</v>
+        <v>0.0007936757480507319</v>
       </c>
       <c r="H14">
-        <v>0.9560972262433438</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7405447773743461</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.413899642306724</v>
+        <v>0.07180274900685291</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.438071434778365</v>
       </c>
       <c r="L14">
-        <v>1.173934400813778</v>
+        <v>0.4326299503655662</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>1.630247933660669</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.051024674236771</v>
+        <v>5.903207253114545</v>
       </c>
       <c r="C15">
-        <v>1.439846288741762</v>
+        <v>0.782106382573744</v>
       </c>
       <c r="D15">
-        <v>0.05062654204167671</v>
+        <v>0.006232187125995381</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.137524501758264</v>
+        <v>3.959399575311437</v>
       </c>
       <c r="G15">
-        <v>0.4736567116110137</v>
+        <v>0.0007948411673479984</v>
       </c>
       <c r="H15">
-        <v>0.9451916775139182</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7328273054245145</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4084979500908403</v>
+        <v>0.07174504807966997</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.42125669112329</v>
       </c>
       <c r="L15">
-        <v>1.159221838045312</v>
+        <v>0.4282719166581046</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>1.632012722275689</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.641984765879727</v>
+        <v>5.519948402550824</v>
       </c>
       <c r="C16">
-        <v>1.342814621997832</v>
+        <v>0.7263199295164213</v>
       </c>
       <c r="D16">
-        <v>0.04760946111200326</v>
+        <v>0.005593283072105493</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.992744847475649</v>
+        <v>3.776632102472263</v>
       </c>
       <c r="G16">
-        <v>0.4398553178692453</v>
+        <v>0.0008015364877160619</v>
       </c>
       <c r="H16">
-        <v>0.8841418488102306</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6900583049549596</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3780514495143947</v>
+        <v>0.07144807072079118</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.325999387386148</v>
       </c>
       <c r="L16">
-        <v>1.075913517026294</v>
+        <v>0.403600172559436</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>1.643236666306791</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.393436068010146</v>
+        <v>5.288571882312908</v>
       </c>
       <c r="C17">
-        <v>1.283899350911042</v>
+        <v>0.6926067190015601</v>
       </c>
       <c r="D17">
-        <v>0.04576759418361576</v>
+        <v>0.005221482745051631</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.906399954279152</v>
+        <v>3.667510736790121</v>
       </c>
       <c r="G17">
-        <v>0.4197197313576169</v>
+        <v>0.0008056617294938416</v>
       </c>
       <c r="H17">
-        <v>0.8478942583430324</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6650380462192018</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3597922174370467</v>
+        <v>0.07129478383634691</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.268475554966187</v>
       </c>
       <c r="L17">
-        <v>1.025631050010304</v>
+        <v>0.3887176187967469</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>1.651065340686969</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.251273489843413</v>
+        <v>5.156761176150439</v>
       </c>
       <c r="C18">
-        <v>1.250216129534806</v>
+        <v>0.6733871264999323</v>
       </c>
       <c r="D18">
-        <v>0.0447111366993127</v>
+        <v>0.005014338029708298</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.857578028488447</v>
+        <v>3.605776135206412</v>
       </c>
       <c r="G18">
-        <v>0.408342308572287</v>
+        <v>0.0008080421283488429</v>
       </c>
       <c r="H18">
-        <v>0.8274561834631129</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6510632522761881</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3494307776940957</v>
+        <v>0.07121680093324656</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.235699009703509</v>
       </c>
       <c r="L18">
-        <v>0.9969863243532018</v>
+        <v>0.3802440255666397</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>1.655896773790644</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.203269188279137</v>
+        <v>5.112341269780927</v>
       </c>
       <c r="C19">
-        <v>1.238844585363665</v>
+        <v>0.6669076863546479</v>
       </c>
       <c r="D19">
-        <v>0.0443539085762481</v>
+        <v>0.004945291583892342</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.841186200876578</v>
+        <v>3.585043973650244</v>
       </c>
       <c r="G19">
-        <v>0.4045236526073381</v>
+        <v>0.0008088495069651684</v>
       </c>
       <c r="H19">
-        <v>0.8206038306051511</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6464003072901079</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3459455782809542</v>
+        <v>0.07119210682774479</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.22465226620595</v>
       </c>
       <c r="L19">
-        <v>0.9873327993499288</v>
+        <v>0.377389280835132</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>1.657587425285399</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.419810373385928</v>
+        <v>5.313068517525835</v>
       </c>
       <c r="C20">
-        <v>1.290149485581992</v>
+        <v>0.6961774647739389</v>
       </c>
       <c r="D20">
-        <v>0.04596335204824697</v>
+        <v>0.005260352517320044</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.915502974741543</v>
+        <v>3.679018783615788</v>
       </c>
       <c r="G20">
-        <v>0.4218417210494607</v>
+        <v>0.0008052218205582491</v>
       </c>
       <c r="H20">
-        <v>0.8517096866695368</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6676577456717041</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3617210896993228</v>
+        <v>0.07131003801381297</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.274566452558616</v>
       </c>
       <c r="L20">
-        <v>1.030954520381002</v>
+        <v>0.3902928041228364</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>1.650197566325758</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.157436714240305</v>
+        <v>6.003402643513482</v>
       </c>
       <c r="C21">
-        <v>1.46510486975086</v>
+        <v>0.7966808483515706</v>
       </c>
       <c r="D21">
-        <v>0.05140860483815146</v>
+        <v>0.006403975976533971</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.175726254122907</v>
+        <v>4.007577485425344</v>
       </c>
       <c r="G21">
-        <v>0.4825835449700975</v>
+        <v>0.0007931171517402077</v>
       </c>
       <c r="H21">
-        <v>0.9613535601000365</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7442725023561465</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4164994112100899</v>
+        <v>0.07183103100380706</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.446155059122333</v>
       </c>
       <c r="L21">
-        <v>1.181008271875683</v>
+        <v>0.4347253458575011</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>1.629422022227814</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.648396788073285</v>
+        <v>6.46820770982572</v>
       </c>
       <c r="C22">
-        <v>1.581730233103428</v>
+        <v>0.8642508157021211</v>
       </c>
       <c r="D22">
-        <v>0.05500196860544548</v>
+        <v>0.007226885147693096</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.354796180866714</v>
+        <v>4.2331172644746</v>
       </c>
       <c r="G22">
-        <v>0.5244709897329187</v>
+        <v>0.0007852498480057874</v>
       </c>
       <c r="H22">
-        <v>1.037385891413663</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7987465650884076</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4538479358209599</v>
+        <v>0.07227194671648363</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.561637290196458</v>
       </c>
       <c r="L22">
-        <v>1.282134792462202</v>
+        <v>0.4646779797471083</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>1.619172973310171</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.385455436145435</v>
+        <v>6.218763415717149</v>
       </c>
       <c r="C23">
-        <v>1.51925138409041</v>
+        <v>0.8279959914150368</v>
       </c>
       <c r="D23">
-        <v>0.05308051428753657</v>
+        <v>0.006779931298389386</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.258320276653095</v>
+        <v>4.111667021165147</v>
       </c>
       <c r="G23">
-        <v>0.5018949162560489</v>
+        <v>0.0007894460548894966</v>
       </c>
       <c r="H23">
-        <v>0.996367932768365</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7692332418420023</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4337570844328411</v>
+        <v>0.07202692309282455</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.499666081570325</v>
       </c>
       <c r="L23">
-        <v>1.227850277574447</v>
+        <v>0.4486005785960003</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>1.624317230086803</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.407884290676805</v>
+        <v>5.301989841954764</v>
       </c>
       <c r="C24">
-        <v>1.287323219222458</v>
+        <v>0.6945626279819805</v>
       </c>
       <c r="D24">
-        <v>0.04587484235538852</v>
+        <v>0.005242759074549852</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.911384964337714</v>
+        <v>3.673812895931235</v>
       </c>
       <c r="G24">
-        <v>0.4208817542251211</v>
+        <v>0.0008054206759148568</v>
       </c>
       <c r="H24">
-        <v>0.8499834895854406</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6664721107880709</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3608486259040831</v>
+        <v>0.07130311010725876</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.271811846046717</v>
       </c>
       <c r="L24">
-        <v>1.028546965445841</v>
+        <v>0.3895804071153037</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>1.650588861542332</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.383097339827714</v>
+        <v>4.360711966486974</v>
       </c>
       <c r="C25">
-        <v>1.044726294458059</v>
+        <v>0.5570343626044973</v>
       </c>
       <c r="D25">
-        <v>0.03821106393341722</v>
+        <v>0.003834885401298394</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.568696714394179</v>
+        <v>3.240167636370415</v>
       </c>
       <c r="G25">
-        <v>0.3411411443861283</v>
+        <v>0.0008229555943547893</v>
       </c>
       <c r="H25">
-        <v>0.7074820058593048</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5712491525983907</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2874686203514898</v>
+        <v>0.07090753042886888</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.037626680519836</v>
       </c>
       <c r="L25">
-        <v>0.8238899477852186</v>
+        <v>0.3291619122337437</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1.69132142017618</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_40/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.698205700757285</v>
+        <v>2.498373318410472</v>
       </c>
       <c r="C2">
-        <v>0.4596780903191302</v>
+        <v>0.596240036460614</v>
       </c>
       <c r="D2">
-        <v>0.002946499069746977</v>
+        <v>0.224479365609568</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.946781290609081</v>
+        <v>0.4797500121673011</v>
       </c>
       <c r="G2">
-        <v>0.0008362392570540407</v>
+        <v>0.2227835060254861</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.2041344985602933</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07090400674240982</v>
+        <v>0.1312944778062146</v>
       </c>
       <c r="K2">
-        <v>0.8725581932175714</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2868191737034635</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8048275302015924</v>
       </c>
       <c r="N2">
-        <v>1.730206468275298</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.8496897835826616</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.263921686967478</v>
+        <v>2.177783336433606</v>
       </c>
       <c r="C3">
-        <v>0.395468901633194</v>
+        <v>0.5280180951041586</v>
       </c>
       <c r="D3">
-        <v>0.002410042920564237</v>
+        <v>0.2055152423591977</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.761038016163127</v>
+        <v>0.4617157653824364</v>
       </c>
       <c r="G3">
-        <v>0.0008455214580820196</v>
+        <v>0.2133392212940208</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.2064397062782177</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07106275940751416</v>
+        <v>0.1269522112958228</v>
       </c>
       <c r="K3">
-        <v>0.7641896971139062</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2591880813784257</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.7008538770759287</v>
       </c>
       <c r="N3">
-        <v>1.761372018554795</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8340979070797516</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.003273155149031</v>
+        <v>1.980951711096708</v>
       </c>
       <c r="C4">
-        <v>0.3567273390865182</v>
+        <v>0.4861351627712054</v>
       </c>
       <c r="D4">
-        <v>0.00210558156383911</v>
+        <v>0.1940678815177108</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.65256521967585</v>
+        <v>0.4520019897363454</v>
       </c>
       <c r="G4">
-        <v>0.0008513724043827872</v>
+        <v>0.2084823121772175</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.2084426549526768</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0712344216374774</v>
+        <v>0.1246111425637295</v>
       </c>
       <c r="K4">
-        <v>0.6990647194369473</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2426697134960705</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.6371651945209322</v>
       </c>
       <c r="N4">
-        <v>1.782671277300096</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.827741511343973</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.898399424706383</v>
+        <v>1.900721382253892</v>
       </c>
       <c r="C5">
-        <v>0.3410862705007105</v>
+        <v>0.4690646796093745</v>
       </c>
       <c r="D5">
-        <v>0.001986798605509321</v>
+        <v>0.1894494592568776</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.609645090692254</v>
+        <v>0.4483677834274928</v>
       </c>
       <c r="G5">
-        <v>0.0008537966796599833</v>
+        <v>0.2067261690842344</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.209400482588272</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07132231439462089</v>
+        <v>0.1237347642090896</v>
       </c>
       <c r="K5">
-        <v>0.6728394537846683</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2360403592757052</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.6112404176458526</v>
       </c>
       <c r="N5">
-        <v>1.79186647632163</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.8259181486533151</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.881061701154465</v>
+        <v>1.887397361166052</v>
       </c>
       <c r="C6">
-        <v>0.3384972280680927</v>
+        <v>0.4662298485685312</v>
       </c>
       <c r="D6">
-        <v>0.00196736745368753</v>
+        <v>0.1886852960213758</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.602592482118851</v>
+        <v>0.4477834109465419</v>
       </c>
       <c r="G6">
-        <v>0.0008542016935325328</v>
+        <v>0.2064476464063603</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.2095679081676423</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07133797256595642</v>
+        <v>0.1235938139291264</v>
       </c>
       <c r="K6">
-        <v>0.6685025600974654</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2349454327145821</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.6069371134274775</v>
       </c>
       <c r="N6">
-        <v>1.793423686811579</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.8256605087651678</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.001853565360875</v>
+        <v>1.979869806229203</v>
       </c>
       <c r="C7">
-        <v>0.356515837154916</v>
+        <v>0.4859049611946489</v>
       </c>
       <c r="D7">
-        <v>0.00210395942582764</v>
+        <v>0.1940054115409566</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.651981336352108</v>
+        <v>0.4519516873678526</v>
       </c>
       <c r="G7">
-        <v>0.0008514049347583599</v>
+        <v>0.2084577426719818</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.2084550070711302</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07123553525885029</v>
+        <v>0.1245990144156508</v>
       </c>
       <c r="K7">
-        <v>0.6987098188583047</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2425799078201294</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.6368154587760841</v>
       </c>
       <c r="N7">
-        <v>1.782793235199918</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.8277138697283135</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.547113307736538</v>
+        <v>2.387817091329794</v>
       </c>
       <c r="C8">
-        <v>0.4373809835153679</v>
+        <v>0.5727132605756537</v>
       </c>
       <c r="D8">
-        <v>0.002755731816176166</v>
+        <v>0.2178978607061879</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.88150556191043</v>
+        <v>0.4732388325976657</v>
       </c>
       <c r="G8">
-        <v>0.0008394094409049924</v>
+        <v>0.2193231307671724</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.204803608296217</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0709428969954331</v>
+        <v>0.1297272436420585</v>
       </c>
       <c r="K8">
-        <v>0.8348729757389037</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2771925706837521</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.7689401926972508</v>
       </c>
       <c r="N8">
-        <v>1.740485398624827</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.8436200726680454</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.672401873715046</v>
+        <v>3.189043167784632</v>
       </c>
       <c r="C9">
-        <v>0.6026569362846033</v>
+        <v>0.7432056023631333</v>
       </c>
       <c r="D9">
-        <v>0.004282102346682137</v>
+        <v>0.2664565263949754</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.381769641115255</v>
+        <v>0.5266057358247807</v>
       </c>
       <c r="G9">
-        <v>0.0008169978662318338</v>
+        <v>0.2487586632240593</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.2025965211346303</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07099341656905622</v>
+        <v>0.1425601027129417</v>
       </c>
       <c r="K9">
-        <v>1.115209591139319</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3491414756521607</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.029696911126599</v>
       </c>
       <c r="N9">
-        <v>1.676111460665652</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.9023373104214016</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.546529633645832</v>
+        <v>3.780235795814804</v>
       </c>
       <c r="C10">
-        <v>0.7301911973925996</v>
+        <v>0.86896469748865</v>
       </c>
       <c r="D10">
-        <v>0.005636665902056137</v>
+        <v>0.3033897299371375</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.78922827152752</v>
+        <v>0.5741344547038452</v>
       </c>
       <c r="G10">
-        <v>0.0008010667303246158</v>
+        <v>0.2763046481294822</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.204423462046762</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07146697270655622</v>
+        <v>0.1539720922913546</v>
       </c>
       <c r="K10">
-        <v>1.332607059437109</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4053105467022533</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.222987081461142</v>
       </c>
       <c r="N10">
-        <v>1.642389160453632</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.96520032242978</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.957914160546864</v>
+        <v>4.050166161029267</v>
       </c>
       <c r="C11">
-        <v>0.7900645197241261</v>
+        <v>0.9263670620203754</v>
       </c>
       <c r="D11">
-        <v>0.006325738944447323</v>
+        <v>0.3205164715250248</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.985684933399739</v>
+        <v>0.5978563942219992</v>
       </c>
       <c r="G11">
-        <v>0.0007938985555854036</v>
+        <v>0.2903505524441385</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.2061053492505636</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.071791581105078</v>
+        <v>0.1596638442066407</v>
       </c>
       <c r="K11">
-        <v>1.434851477830449</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4317953410151176</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.311460842917853</v>
       </c>
       <c r="N11">
-        <v>1.63058097731188</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.9987805565933456</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.116002931293224</v>
+        <v>4.15256258055166</v>
       </c>
       <c r="C12">
-        <v>0.8130556243720548</v>
+        <v>0.9481390203897888</v>
       </c>
       <c r="D12">
-        <v>0.006599397870882484</v>
+        <v>0.3270533301566303</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.061910020424563</v>
+        <v>0.6071676362509919</v>
       </c>
       <c r="G12">
-        <v>0.0007911919780097791</v>
+        <v>0.2959077897353808</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.2068737497098851</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.07193159596391041</v>
+        <v>0.1618973469002256</v>
       </c>
       <c r="K12">
-        <v>1.474133955470251</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4419792639880882</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.345056838549723</v>
       </c>
       <c r="N12">
-        <v>1.62667494503313</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.012275928634722</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.081847344577909</v>
+        <v>4.130501072851985</v>
       </c>
       <c r="C13">
-        <v>0.8080890215481702</v>
+        <v>0.9434483676633079</v>
       </c>
       <c r="D13">
-        <v>0.00653985487652875</v>
+        <v>0.325643142388202</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.045408045259933</v>
+        <v>0.6051472579166131</v>
       </c>
       <c r="G13">
-        <v>0.0007917745994664671</v>
+        <v>0.294699996280869</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.2067022592091234</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.07190065687303715</v>
+        <v>0.1614127422653979</v>
       </c>
       <c r="K13">
-        <v>1.46564720425026</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4397787362812124</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.337816964502323</v>
       </c>
       <c r="N13">
-        <v>1.627490023993232</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.009333755291664</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.970871936253843</v>
+        <v>4.058586554683529</v>
       </c>
       <c r="C14">
-        <v>0.7919493105688673</v>
+        <v>0.9281575116685303</v>
       </c>
       <c r="D14">
-        <v>0.006347983851767935</v>
+        <v>0.3210532070529126</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.99191785403633</v>
+        <v>0.5986157004896384</v>
       </c>
       <c r="G14">
-        <v>0.0007936757480507319</v>
+        <v>0.2908028500783217</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.206165875615369</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.07180274900685291</v>
+        <v>0.1598459922130999</v>
       </c>
       <c r="K14">
-        <v>1.438071434778365</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4326299503655662</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.314222856567497</v>
       </c>
       <c r="N14">
-        <v>1.630247933660669</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.9998748365660504</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.903207253114545</v>
+        <v>4.014561372070943</v>
       </c>
       <c r="C15">
-        <v>0.782106382573744</v>
+        <v>0.9187961886887877</v>
       </c>
       <c r="D15">
-        <v>0.006232187125995381</v>
+        <v>0.3182485635124266</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.959399575311437</v>
+        <v>0.5946584897448233</v>
       </c>
       <c r="G15">
-        <v>0.0007948411673479984</v>
+        <v>0.2884474097371168</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2058547342802086</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.07174504807966997</v>
+        <v>0.1588966831899015</v>
       </c>
       <c r="K15">
-        <v>1.42125669112329</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4282719166581046</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.299783333135537</v>
       </c>
       <c r="N15">
-        <v>1.632012722275689</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.9941843944518496</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.519948402550824</v>
+        <v>3.762618283941151</v>
       </c>
       <c r="C16">
-        <v>0.7263199295164213</v>
+        <v>0.8652178089378992</v>
       </c>
       <c r="D16">
-        <v>0.005593283072105493</v>
+        <v>0.3022773877733442</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.776632102472263</v>
+        <v>0.572628639418987</v>
       </c>
       <c r="G16">
-        <v>0.0008015364877160619</v>
+        <v>0.2754189216146514</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.2043314355557868</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.07144807072079118</v>
+        <v>0.1536107121514618</v>
       </c>
       <c r="K16">
-        <v>1.325999387386148</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.403600172559436</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.217217297206062</v>
       </c>
       <c r="N16">
-        <v>1.643236666306791</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.9631113110320939</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.288571882312908</v>
+        <v>3.608339131145783</v>
       </c>
       <c r="C17">
-        <v>0.6926067190015601</v>
+        <v>0.8324037048722346</v>
       </c>
       <c r="D17">
-        <v>0.005221482745051631</v>
+        <v>0.2925660998172788</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.667510736790121</v>
+        <v>0.5596701651970406</v>
       </c>
       <c r="G17">
-        <v>0.0008056617294938416</v>
+        <v>0.267828548618013</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.2036211692267713</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.07129478383634691</v>
+        <v>0.1505003754867573</v>
       </c>
       <c r="K17">
-        <v>1.268475554966187</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3887176187967469</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.166715298220637</v>
       </c>
       <c r="N17">
-        <v>1.651065340686969</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.9453685792136781</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.156761176150439</v>
+        <v>3.519693020644183</v>
       </c>
       <c r="C18">
-        <v>0.6733871264999323</v>
+        <v>0.8135476970273032</v>
       </c>
       <c r="D18">
-        <v>0.005014338029708298</v>
+        <v>0.2870107865099101</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.605776135206412</v>
+        <v>0.5524128682024454</v>
       </c>
       <c r="G18">
-        <v>0.0008080421283488429</v>
+        <v>0.2636040658228609</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.2032921387876243</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07121680093324656</v>
+        <v>0.1487580930875794</v>
       </c>
       <c r="K18">
-        <v>1.235699009703509</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3802440255666397</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.137718256270929</v>
       </c>
       <c r="N18">
-        <v>1.655896773790644</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.9356285001922515</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.112341269780927</v>
+        <v>3.489693559015166</v>
       </c>
       <c r="C19">
-        <v>0.6669076863546479</v>
+        <v>0.80716622826003</v>
       </c>
       <c r="D19">
-        <v>0.004945291583892342</v>
+        <v>0.2851349355720885</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.585043973650244</v>
+        <v>0.5499885808434257</v>
       </c>
       <c r="G19">
-        <v>0.0008088495069651684</v>
+        <v>0.2621973957367416</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.2031941195393827</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.07119210682774479</v>
+        <v>0.1481760252924076</v>
       </c>
       <c r="K19">
-        <v>1.22465226620595</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.377389280835132</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.127908583429814</v>
       </c>
       <c r="N19">
-        <v>1.657587425285399</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.9324087157866785</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.313068517525835</v>
+        <v>3.624752717056708</v>
       </c>
       <c r="C20">
-        <v>0.6961774647739389</v>
+        <v>0.8358949311920298</v>
       </c>
       <c r="D20">
-        <v>0.005260352517320044</v>
+        <v>0.2935967089537002</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.679018783615788</v>
+        <v>0.5610291402948064</v>
       </c>
       <c r="G20">
-        <v>0.0008052218205582491</v>
+        <v>0.2686217890335456</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.2036884864519166</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07131003801381297</v>
+        <v>0.1508265992318485</v>
       </c>
       <c r="K20">
-        <v>1.274566452558616</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3902928041228364</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.172086007313652</v>
       </c>
       <c r="N20">
-        <v>1.650197566325758</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.9472087504917255</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.003402643513482</v>
+        <v>4.079704408793475</v>
       </c>
       <c r="C21">
-        <v>0.7966808483515706</v>
+        <v>0.9326477997093718</v>
       </c>
       <c r="D21">
-        <v>0.006403975976533971</v>
+        <v>0.3223999516227423</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.007577485425344</v>
+        <v>0.6005250507241655</v>
       </c>
       <c r="G21">
-        <v>0.0007931171517402077</v>
+        <v>0.291940896860595</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.2063197791530911</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.07183103100380706</v>
+        <v>0.1603040117321228</v>
       </c>
       <c r="K21">
-        <v>1.446155059122333</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4347253458575011</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.32115037527457</v>
       </c>
       <c r="N21">
-        <v>1.629422022227814</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.002631479762243</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.46820770982572</v>
+        <v>4.378107984724636</v>
       </c>
       <c r="C22">
-        <v>0.8642508157021211</v>
+        <v>0.9960886827889794</v>
       </c>
       <c r="D22">
-        <v>0.007226885147693096</v>
+        <v>0.3415260749585656</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.2331172644746</v>
+        <v>0.6282647558831087</v>
       </c>
       <c r="G22">
-        <v>0.0007852498480057874</v>
+        <v>0.3085811987493798</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.2088107353890933</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.07227194671648363</v>
+        <v>0.16695683777521</v>
       </c>
       <c r="K22">
-        <v>1.561637290196458</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4646779797471083</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.419121635818001</v>
       </c>
       <c r="N22">
-        <v>1.619172973310171</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.043427957447733</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.218763415717149</v>
+        <v>4.218733888249176</v>
       </c>
       <c r="C23">
-        <v>0.8279959914150368</v>
+        <v>0.9622076395121724</v>
       </c>
       <c r="D23">
-        <v>0.006779931298389386</v>
+        <v>0.3312889371368613</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.111667021165147</v>
+        <v>0.6132741123846657</v>
       </c>
       <c r="G23">
-        <v>0.0007894460548894966</v>
+        <v>0.2995647064645368</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.2074074937856665</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.07202692309282455</v>
+        <v>0.1633619490654112</v>
       </c>
       <c r="K23">
-        <v>1.499666081570325</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4486005785960003</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.366777190439578</v>
       </c>
       <c r="N23">
-        <v>1.624317230086803</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.021213656329905</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.301989841954764</v>
+        <v>3.617331978661696</v>
       </c>
       <c r="C24">
-        <v>0.6945626279819805</v>
+        <v>0.8343165194625328</v>
       </c>
       <c r="D24">
-        <v>0.005242759074549852</v>
+        <v>0.2931306841984309</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.673812895931235</v>
+        <v>0.5604141493836536</v>
       </c>
       <c r="G24">
-        <v>0.0008054206759148568</v>
+        <v>0.268262732611376</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.2036578059829139</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07130311010725876</v>
+        <v>0.1506789709983707</v>
       </c>
       <c r="K24">
-        <v>1.271811846046717</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3895804071153037</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.169657794853464</v>
       </c>
       <c r="N24">
-        <v>1.650588861542332</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.9463753795298118</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.360711966486974</v>
+        <v>2.971982212045646</v>
       </c>
       <c r="C25">
-        <v>0.5570343626044973</v>
+        <v>0.6970215661426096</v>
       </c>
       <c r="D25">
-        <v>0.003834885401298394</v>
+        <v>0.2531159301554169</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.240167636370415</v>
+        <v>0.5108015223698956</v>
       </c>
       <c r="G25">
-        <v>0.0008229555943547893</v>
+        <v>0.2398294845339279</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.2026206953969805</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07090753042886888</v>
+        <v>0.1387623331585814</v>
       </c>
       <c r="K25">
-        <v>1.037626680519836</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3291619122337437</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.9589083326613732</v>
       </c>
       <c r="N25">
-        <v>1.69132142017618</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.8832133883022522</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_40/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.498373318410472</v>
+        <v>0.8516770203761439</v>
       </c>
       <c r="C2">
-        <v>0.596240036460614</v>
+        <v>0.2000309853246733</v>
       </c>
       <c r="D2">
-        <v>0.224479365609568</v>
+        <v>0.3391645995911858</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4797500121673011</v>
+        <v>0.9440443906620857</v>
       </c>
       <c r="G2">
-        <v>0.2227835060254861</v>
+        <v>0.3834933228624351</v>
       </c>
       <c r="H2">
-        <v>0.2041344985602933</v>
+        <v>0.5511931531123722</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1312944778062146</v>
+        <v>0.2783003810015288</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8048275302015924</v>
+        <v>0.4026474531072424</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.8496897835826616</v>
+        <v>1.812125278026031</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.177783336433606</v>
+        <v>0.7485809239037167</v>
       </c>
       <c r="C3">
-        <v>0.5280180951041586</v>
+        <v>0.1771194128600087</v>
       </c>
       <c r="D3">
-        <v>0.2055152423591977</v>
+        <v>0.3356954162833716</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4617157653824364</v>
+        <v>0.9500294777889238</v>
       </c>
       <c r="G3">
-        <v>0.2133392212940208</v>
+        <v>0.3870784247122927</v>
       </c>
       <c r="H3">
-        <v>0.2064397062782177</v>
+        <v>0.5572397599184526</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1269522112958228</v>
+        <v>0.27995609549248</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7008538770759287</v>
+        <v>0.3715158875389051</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8340979070797516</v>
+        <v>1.832103535816159</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.980951711096708</v>
+        <v>0.6850901776286662</v>
       </c>
       <c r="C4">
-        <v>0.4861351627712054</v>
+        <v>0.1629960467539036</v>
       </c>
       <c r="D4">
-        <v>0.1940678815177108</v>
+        <v>0.3336931673584473</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4520019897363454</v>
+        <v>0.954395047038993</v>
       </c>
       <c r="G4">
-        <v>0.2084823121772175</v>
+        <v>0.3896792054913263</v>
       </c>
       <c r="H4">
-        <v>0.2084426549526768</v>
+        <v>0.5612835911194978</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1246111425637295</v>
+        <v>0.2811472355087972</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6371651945209322</v>
+        <v>0.3524380038455988</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.827741511343973</v>
+        <v>1.84590088892763</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.900721382253892</v>
+        <v>0.6591713030798871</v>
       </c>
       <c r="C5">
-        <v>0.4690646796093745</v>
+        <v>0.1572271248371919</v>
       </c>
       <c r="D5">
-        <v>0.1894494592568776</v>
+        <v>0.3329094898101772</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4483677834274928</v>
+        <v>0.9563475815632287</v>
       </c>
       <c r="G5">
-        <v>0.2067261690842344</v>
+        <v>0.3908392414146107</v>
       </c>
       <c r="H5">
-        <v>0.209400482588272</v>
+        <v>0.5630147324634578</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1237347642090896</v>
+        <v>0.2816764894352275</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6112404176458526</v>
+        <v>0.3446734191735956</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.8259181486533151</v>
+        <v>1.851907673487133</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.887397361166052</v>
+        <v>0.654864773797101</v>
       </c>
       <c r="C6">
-        <v>0.4662298485685312</v>
+        <v>0.1562683951849522</v>
       </c>
       <c r="D6">
-        <v>0.1886852960213758</v>
+        <v>0.332781312060888</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4477834109465419</v>
+        <v>0.9566822746984442</v>
       </c>
       <c r="G6">
-        <v>0.2064476464063603</v>
+        <v>0.3910379083546118</v>
       </c>
       <c r="H6">
-        <v>0.2095679081676423</v>
+        <v>0.5633072141230571</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1235938139291264</v>
+        <v>0.2817670194566091</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6069371134274775</v>
+        <v>0.3433847228971203</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.8256605087651678</v>
+        <v>1.852928284607032</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.979869806229203</v>
+        <v>0.6847408100881864</v>
       </c>
       <c r="C7">
-        <v>0.4859049611946489</v>
+        <v>0.162918299276555</v>
       </c>
       <c r="D7">
-        <v>0.1940054115409566</v>
+        <v>0.3336824676648575</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4519516873678526</v>
+        <v>0.9544206771919264</v>
       </c>
       <c r="G7">
-        <v>0.2084577426719818</v>
+        <v>0.3896944448009165</v>
       </c>
       <c r="H7">
-        <v>0.2084550070711302</v>
+        <v>0.5613066008770602</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1245990144156508</v>
+        <v>0.2811541956873143</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6368154587760841</v>
+        <v>0.3523332475668823</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.8277138697283135</v>
+        <v>1.845980343554729</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.387817091329794</v>
+        <v>0.8161697821508938</v>
       </c>
       <c r="C8">
-        <v>0.5727132605756537</v>
+        <v>0.1921428625813633</v>
       </c>
       <c r="D8">
-        <v>0.2178978607061879</v>
+        <v>0.3379419540975448</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4732388325976657</v>
+        <v>0.9459646005735252</v>
       </c>
       <c r="G8">
-        <v>0.2193231307671724</v>
+        <v>0.3846463878543531</v>
       </c>
       <c r="H8">
-        <v>0.204803608296217</v>
+        <v>0.5532092648886362</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1297272436420585</v>
+        <v>0.2788350298495175</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7689401926972508</v>
+        <v>0.3919058930738188</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.8436200726680454</v>
+        <v>1.818695718370677</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.189043167784632</v>
+        <v>1.072336168005336</v>
       </c>
       <c r="C9">
-        <v>0.7432056023631333</v>
+        <v>0.2489948470000911</v>
       </c>
       <c r="D9">
-        <v>0.2664565263949754</v>
+        <v>0.3473051692525218</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5266057358247807</v>
+        <v>0.9348703126687212</v>
       </c>
       <c r="G9">
-        <v>0.2487586632240593</v>
+        <v>0.3779292818056632</v>
       </c>
       <c r="H9">
-        <v>0.2025965211346303</v>
+        <v>0.539959779449724</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1425601027129417</v>
+        <v>0.275673514319287</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.029696911126599</v>
+        <v>0.4697836251920364</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.9023373104214016</v>
+        <v>1.777364695698125</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.780235795814804</v>
+        <v>1.259521010608751</v>
       </c>
       <c r="C10">
-        <v>0.86896469748865</v>
+        <v>0.2904673570007503</v>
       </c>
       <c r="D10">
-        <v>0.3033897299371375</v>
+        <v>0.354795966851583</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5741344547038452</v>
+        <v>0.9300766687866684</v>
       </c>
       <c r="G10">
-        <v>0.2763046481294822</v>
+        <v>0.3749512870030998</v>
       </c>
       <c r="H10">
-        <v>0.204423462046762</v>
+        <v>0.5318304572574704</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1539720922913546</v>
+        <v>0.2741983864668285</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.222987081461142</v>
+        <v>0.5271504761823849</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.96520032242978</v>
+        <v>1.754461687787654</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.050166161029267</v>
+        <v>1.344441917236509</v>
       </c>
       <c r="C11">
-        <v>0.9263670620203754</v>
+        <v>0.3092663904974984</v>
       </c>
       <c r="D11">
-        <v>0.3205164715250248</v>
+        <v>0.3583356954550823</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5978563942219992</v>
+        <v>0.9286274916458126</v>
       </c>
       <c r="G11">
-        <v>0.2903505524441385</v>
+        <v>0.3740251635060474</v>
       </c>
       <c r="H11">
-        <v>0.2061053492505636</v>
+        <v>0.5284812154072824</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1596638442066407</v>
+        <v>0.2737119203217731</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.311460842917853</v>
+        <v>0.5532772956062786</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.9987805565933456</v>
+        <v>1.745671899058408</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.15256258055166</v>
+        <v>1.376564665238334</v>
       </c>
       <c r="C12">
-        <v>0.9481390203897888</v>
+        <v>0.3163750836798442</v>
       </c>
       <c r="D12">
-        <v>0.3270533301566303</v>
+        <v>0.3596950058382475</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.6071676362509919</v>
+        <v>0.9281840992845289</v>
       </c>
       <c r="G12">
-        <v>0.2959077897353808</v>
+        <v>0.3737363838104955</v>
       </c>
       <c r="H12">
-        <v>0.2068737497098851</v>
+        <v>0.527263147789796</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1618973469002256</v>
+        <v>0.2735542907708606</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.345056838549723</v>
+        <v>0.5631747922779908</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.012275928634722</v>
+        <v>1.742578378205735</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.130501072851985</v>
+        <v>1.369648040257005</v>
       </c>
       <c r="C13">
-        <v>0.9434483676633079</v>
+        <v>0.3148445554956254</v>
       </c>
       <c r="D13">
-        <v>0.325643142388202</v>
+        <v>0.3594014155131617</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.6051472579166131</v>
+        <v>0.9282749019059011</v>
       </c>
       <c r="G13">
-        <v>0.294699996280869</v>
+        <v>0.3737958189799997</v>
       </c>
       <c r="H13">
-        <v>0.2067022592091234</v>
+        <v>0.5275232461067105</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1614127422653979</v>
+        <v>0.2735870560793146</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.337816964502323</v>
+        <v>0.5610430269818778</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.009333755291664</v>
+        <v>1.743234160571745</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.058586554683529</v>
+        <v>1.347085386009837</v>
       </c>
       <c r="C14">
-        <v>0.9281575116685303</v>
+        <v>0.309851431830424</v>
       </c>
       <c r="D14">
-        <v>0.3210532070529126</v>
+        <v>0.35844714873096</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5986157004896384</v>
+        <v>0.9285889004202019</v>
       </c>
       <c r="G14">
-        <v>0.2908028500783217</v>
+        <v>0.374000162718815</v>
       </c>
       <c r="H14">
-        <v>0.206165875615369</v>
+        <v>0.5283799974934027</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1598459922130999</v>
+        <v>0.2736984190044893</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.314222856567497</v>
+        <v>0.5540914947200264</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.9998748365660504</v>
+        <v>1.745412679598815</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.014561372070943</v>
+        <v>1.333260502620817</v>
       </c>
       <c r="C15">
-        <v>0.9187961886887877</v>
+        <v>0.306791671589167</v>
       </c>
       <c r="D15">
-        <v>0.3182485635124266</v>
+        <v>0.3578650898742382</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.5946584897448233</v>
+        <v>0.9287949628392198</v>
       </c>
       <c r="G15">
-        <v>0.2884474097371168</v>
+        <v>0.3741334020662777</v>
       </c>
       <c r="H15">
-        <v>0.2058547342802086</v>
+        <v>0.5289113239421823</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1588966831899015</v>
+        <v>0.2737700953774294</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.299783333135537</v>
+        <v>0.5498339646095189</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.9941843944518496</v>
+        <v>1.746777708998991</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.762618283941151</v>
+        <v>1.253966436916244</v>
       </c>
       <c r="C16">
-        <v>0.8652178089378992</v>
+        <v>0.2892374083064055</v>
       </c>
       <c r="D16">
-        <v>0.3022773877733442</v>
+        <v>0.3545672867839897</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.572628639418987</v>
+        <v>0.9301861117321195</v>
       </c>
       <c r="G16">
-        <v>0.2754189216146514</v>
+        <v>0.375020460656323</v>
       </c>
       <c r="H16">
-        <v>0.2043314355557868</v>
+        <v>0.5320563622364745</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1536107121514618</v>
+        <v>0.2742338959863631</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.217217297206062</v>
+        <v>0.5254435926829473</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.9631113110320939</v>
+        <v>1.755068962836461</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.608339131145783</v>
+        <v>1.205261778958402</v>
       </c>
       <c r="C17">
-        <v>0.8324037048722346</v>
+        <v>0.2784509455536011</v>
       </c>
       <c r="D17">
-        <v>0.2925660998172788</v>
+        <v>0.3525779556058382</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.5596701651970406</v>
+        <v>0.9312270238202061</v>
       </c>
       <c r="G17">
-        <v>0.267828548618013</v>
+        <v>0.3756746219459757</v>
       </c>
       <c r="H17">
-        <v>0.2036211692267713</v>
+        <v>0.5340751248454012</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1505003754867573</v>
+        <v>0.274565727648806</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.166715298220637</v>
+        <v>0.510488286956388</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.9453685792136781</v>
+        <v>1.760573113049105</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.519693020644183</v>
+        <v>1.177226567920798</v>
       </c>
       <c r="C18">
-        <v>0.8135476970273032</v>
+        <v>0.2722405762334574</v>
       </c>
       <c r="D18">
-        <v>0.2870107865099101</v>
+        <v>0.3514461877933286</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5524128682024454</v>
+        <v>0.931894567369298</v>
       </c>
       <c r="G18">
-        <v>0.2636040658228609</v>
+        <v>0.3760912008868758</v>
       </c>
       <c r="H18">
-        <v>0.2032921387876243</v>
+        <v>0.5352690936400322</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1487580930875794</v>
+        <v>0.2747739591590488</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.137718256270929</v>
+        <v>0.5018892787616096</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.9356285001922515</v>
+        <v>1.76389223052783</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.489693559015166</v>
+        <v>1.167730676577776</v>
       </c>
       <c r="C19">
-        <v>0.80716622826003</v>
+        <v>0.2701367870355682</v>
       </c>
       <c r="D19">
-        <v>0.2851349355720885</v>
+        <v>0.3510651310187285</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.5499885808434257</v>
+        <v>0.9321324032640064</v>
       </c>
       <c r="G19">
-        <v>0.2621973957367416</v>
+        <v>0.3762391638339011</v>
       </c>
       <c r="H19">
-        <v>0.2031941195393827</v>
+        <v>0.5356789878041752</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1481760252924076</v>
+        <v>0.2748474449036209</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.127908583429814</v>
+        <v>0.4989783144933568</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.9324087157866785</v>
+        <v>1.765042329116753</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.624752717056708</v>
+        <v>1.210448719639487</v>
       </c>
       <c r="C20">
-        <v>0.8358949311920298</v>
+        <v>0.2795998363276055</v>
       </c>
       <c r="D20">
-        <v>0.2935967089537002</v>
+        <v>0.3527884362970894</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.5610291402948064</v>
+        <v>0.9311090910157986</v>
       </c>
       <c r="G20">
-        <v>0.2686217890335456</v>
+        <v>0.3756008099807175</v>
       </c>
       <c r="H20">
-        <v>0.2036884864519166</v>
+        <v>0.5338568259324816</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1508265992318485</v>
+        <v>0.2745286054883138</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.172086007313652</v>
+        <v>0.5120800097041354</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.9472087504917255</v>
+        <v>1.759971317958019</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.079704408793475</v>
+        <v>1.353713547643906</v>
       </c>
       <c r="C21">
-        <v>0.9326477997093718</v>
+        <v>0.3113183108098383</v>
       </c>
       <c r="D21">
-        <v>0.3223999516227423</v>
+        <v>0.3587269281517393</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.6005250507241655</v>
+        <v>0.9284938099354534</v>
       </c>
       <c r="G21">
-        <v>0.291940896860595</v>
+        <v>0.3739384591017227</v>
       </c>
       <c r="H21">
-        <v>0.2063197791530911</v>
+        <v>0.5281269855026096</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1603040117321228</v>
+        <v>0.2736649871759482</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.32115037527457</v>
+        <v>0.5561332282988616</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.002631479762243</v>
+        <v>1.744766412497938</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.378107984724636</v>
+        <v>1.447140807256631</v>
       </c>
       <c r="C22">
-        <v>0.9960886827889794</v>
+        <v>0.3319891306659031</v>
       </c>
       <c r="D22">
-        <v>0.3415260749585656</v>
+        <v>0.3627181429775135</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.6282647558831087</v>
+        <v>0.9273988940914464</v>
       </c>
       <c r="G22">
-        <v>0.3085811987493798</v>
+        <v>0.3732130872014778</v>
       </c>
       <c r="H22">
-        <v>0.2088107353890933</v>
+        <v>0.5246749361097756</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.16695683777521</v>
+        <v>0.2732555378671648</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.419121635818001</v>
+        <v>0.5849466769321623</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.043427957447733</v>
+        <v>1.736199122173474</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.218733888249176</v>
+        <v>1.397296238576416</v>
       </c>
       <c r="C23">
-        <v>0.9622076395121724</v>
+        <v>0.3209622762861102</v>
       </c>
       <c r="D23">
-        <v>0.3312889371368613</v>
+        <v>0.3605779208992459</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.6132741123846657</v>
+        <v>0.9279269971501023</v>
       </c>
       <c r="G23">
-        <v>0.2995647064645368</v>
+        <v>0.3735670973478022</v>
       </c>
       <c r="H23">
-        <v>0.2074074937856665</v>
+        <v>0.5264905561667916</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1633619490654112</v>
+        <v>0.2734598743770462</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.366777190439578</v>
+        <v>0.5695665461823438</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.021213656329905</v>
+        <v>1.740646046197043</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.617331978661696</v>
+        <v>1.208103810319642</v>
       </c>
       <c r="C24">
-        <v>0.8343165194625328</v>
+        <v>0.279080451083928</v>
       </c>
       <c r="D24">
-        <v>0.2931306841984309</v>
+        <v>0.3526932408236405</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.5604141493836536</v>
+        <v>0.9311621931802279</v>
       </c>
       <c r="G24">
-        <v>0.268262732611376</v>
+        <v>0.3756340542599048</v>
       </c>
       <c r="H24">
-        <v>0.2036578059829139</v>
+        <v>0.5339554149747414</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1506789709983707</v>
+        <v>0.2745453340434594</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.169657794853464</v>
+        <v>0.5113603949379097</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.9463753795298118</v>
+        <v>1.760242907667575</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.971982212045646</v>
+        <v>1.003210874228671</v>
       </c>
       <c r="C25">
-        <v>0.6970215661426096</v>
+        <v>0.2336657000380171</v>
       </c>
       <c r="D25">
-        <v>0.2531159301554169</v>
+        <v>0.3446644503275564</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.5108015223698956</v>
+        <v>0.9372828651533922</v>
       </c>
       <c r="G25">
-        <v>0.2398294845339279</v>
+        <v>0.3794039886594049</v>
       </c>
       <c r="H25">
-        <v>0.2026206953969805</v>
+        <v>0.5432624022774917</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1387623331585814</v>
+        <v>0.2763801121061533</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9589083326613732</v>
+        <v>0.4486879843561553</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.8832133883022522</v>
+        <v>1.787238234351477</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_40/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8516770203761439</v>
+        <v>2.498373318410302</v>
       </c>
       <c r="C2">
-        <v>0.2000309853246733</v>
+        <v>0.5962400364603297</v>
       </c>
       <c r="D2">
-        <v>0.3391645995911858</v>
+        <v>0.2244793656093975</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9440443906620857</v>
+        <v>0.4797500121673011</v>
       </c>
       <c r="G2">
-        <v>0.3834933228624351</v>
+        <v>0.2227835060253582</v>
       </c>
       <c r="H2">
-        <v>0.5511931531123722</v>
+        <v>0.204134498560407</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2783003810015288</v>
+        <v>0.1312944778061436</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4026474531072424</v>
+        <v>0.8048275302015853</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.812125278026031</v>
+        <v>0.8496897835826189</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7485809239037167</v>
+        <v>2.177783336433606</v>
       </c>
       <c r="C3">
-        <v>0.1771194128600087</v>
+        <v>0.5280180951039597</v>
       </c>
       <c r="D3">
-        <v>0.3356954162833716</v>
+        <v>0.2055152423591124</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9500294777889238</v>
+        <v>0.4617157653824151</v>
       </c>
       <c r="G3">
-        <v>0.3870784247122927</v>
+        <v>0.2133392212940706</v>
       </c>
       <c r="H3">
-        <v>0.5572397599184526</v>
+        <v>0.2064397062782106</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.27995609549248</v>
+        <v>0.1269522112958299</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3715158875389051</v>
+        <v>0.7008538770759145</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.832103535816159</v>
+        <v>0.8340979070796379</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6850901776286662</v>
+        <v>1.980951711096708</v>
       </c>
       <c r="C4">
-        <v>0.1629960467539036</v>
+        <v>0.4861351627712907</v>
       </c>
       <c r="D4">
-        <v>0.3336931673584473</v>
+        <v>0.1940678815176398</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.954395047038993</v>
+        <v>0.4520019897363525</v>
       </c>
       <c r="G4">
-        <v>0.3896792054913263</v>
+        <v>0.2084823121771677</v>
       </c>
       <c r="H4">
-        <v>0.5612835911194978</v>
+        <v>0.2084426549527905</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2811472355087972</v>
+        <v>0.1246111425637082</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3524380038455988</v>
+        <v>0.6371651945209322</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.84590088892763</v>
+        <v>0.8277415113439019</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6591713030798871</v>
+        <v>1.900721382253863</v>
       </c>
       <c r="C5">
-        <v>0.1572271248371919</v>
+        <v>0.4690646796091471</v>
       </c>
       <c r="D5">
-        <v>0.3329094898101772</v>
+        <v>0.1894494592566929</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9563475815632287</v>
+        <v>0.4483677834274786</v>
       </c>
       <c r="G5">
-        <v>0.3908392414146107</v>
+        <v>0.2067261690842983</v>
       </c>
       <c r="H5">
-        <v>0.5630147324634578</v>
+        <v>0.209400482588272</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2816764894352275</v>
+        <v>0.1237347642090967</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3446734191735956</v>
+        <v>0.6112404176458455</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.851907673487133</v>
+        <v>0.8259181486533578</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.654864773797101</v>
+        <v>1.887397361166052</v>
       </c>
       <c r="C6">
-        <v>0.1562683951849522</v>
+        <v>0.4662298485686165</v>
       </c>
       <c r="D6">
-        <v>0.332781312060888</v>
+        <v>0.1886852960216174</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9566822746984442</v>
+        <v>0.4477834109465419</v>
       </c>
       <c r="G6">
-        <v>0.3910379083546118</v>
+        <v>0.2064476464063745</v>
       </c>
       <c r="H6">
-        <v>0.5633072141230571</v>
+        <v>0.2095679081676423</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2817670194566091</v>
+        <v>0.1235938139291406</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3433847228971203</v>
+        <v>0.6069371134274917</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.852928284607032</v>
+        <v>0.8256605087651678</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6847408100881864</v>
+        <v>1.979869806229289</v>
       </c>
       <c r="C7">
-        <v>0.162918299276555</v>
+        <v>0.4859049611944499</v>
       </c>
       <c r="D7">
-        <v>0.3336824676648575</v>
+        <v>0.1940054115411129</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9544206771919264</v>
+        <v>0.4519516873678668</v>
       </c>
       <c r="G7">
-        <v>0.3896944448009165</v>
+        <v>0.2084577426719463</v>
       </c>
       <c r="H7">
-        <v>0.5613066008770602</v>
+        <v>0.2084550070711373</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2811541956873143</v>
+        <v>0.1245990144156082</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3523332475668823</v>
+        <v>0.6368154587760557</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.845980343554729</v>
+        <v>0.8277138697284272</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8161697821508938</v>
+        <v>2.38781709132985</v>
       </c>
       <c r="C8">
-        <v>0.1921428625813633</v>
+        <v>0.5727132605754548</v>
       </c>
       <c r="D8">
-        <v>0.3379419540975448</v>
+        <v>0.2178978607060742</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9459646005735252</v>
+        <v>0.4732388325976657</v>
       </c>
       <c r="G8">
-        <v>0.3846463878543531</v>
+        <v>0.2193231307671155</v>
       </c>
       <c r="H8">
-        <v>0.5532092648886362</v>
+        <v>0.2048036082962312</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2788350298495175</v>
+        <v>0.1297272436419377</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3919058930738188</v>
+        <v>0.768940192697265</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.818695718370677</v>
+        <v>0.8436200726680454</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.072336168005336</v>
+        <v>3.189043167784746</v>
       </c>
       <c r="C9">
-        <v>0.2489948470000911</v>
+        <v>0.743205602363048</v>
       </c>
       <c r="D9">
-        <v>0.3473051692525218</v>
+        <v>0.2664565263949754</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9348703126687212</v>
+        <v>0.5266057358247949</v>
       </c>
       <c r="G9">
-        <v>0.3779292818056632</v>
+        <v>0.2487586632239882</v>
       </c>
       <c r="H9">
-        <v>0.539959779449724</v>
+        <v>0.2025965211345095</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.275673514319287</v>
+        <v>0.1425601027129844</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4697836251920364</v>
+        <v>1.029696911126599</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.777364695698125</v>
+        <v>0.9023373104213874</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.259521010608751</v>
+        <v>3.780235795814917</v>
       </c>
       <c r="C10">
-        <v>0.2904673570007503</v>
+        <v>0.8689646974886784</v>
       </c>
       <c r="D10">
-        <v>0.354795966851583</v>
+        <v>0.3033897299369812</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9300766687866684</v>
+        <v>0.5741344547038665</v>
       </c>
       <c r="G10">
-        <v>0.3749512870030998</v>
+        <v>0.2763046481294893</v>
       </c>
       <c r="H10">
-        <v>0.5318304572574704</v>
+        <v>0.204423462046762</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2741983864668285</v>
+        <v>0.1539720922914611</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5271504761823849</v>
+        <v>1.222987081461156</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.754461687787654</v>
+        <v>0.9652003224297516</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.344441917236509</v>
+        <v>4.050166161029267</v>
       </c>
       <c r="C11">
-        <v>0.3092663904974984</v>
+        <v>0.9263670620199775</v>
       </c>
       <c r="D11">
-        <v>0.3583356954550823</v>
+        <v>0.3205164715251811</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9286274916458126</v>
+        <v>0.597856394221985</v>
       </c>
       <c r="G11">
-        <v>0.3740251635060474</v>
+        <v>0.2903505524441385</v>
       </c>
       <c r="H11">
-        <v>0.5284812154072824</v>
+        <v>0.2061053492505494</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2737119203217731</v>
+        <v>0.1596638442066833</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5532772956062786</v>
+        <v>1.311460842917867</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.745671899058408</v>
+        <v>0.9987805565932888</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.376564665238334</v>
+        <v>4.152562580551376</v>
       </c>
       <c r="C12">
-        <v>0.3163750836798442</v>
+        <v>0.9481390203897888</v>
       </c>
       <c r="D12">
-        <v>0.3596950058382475</v>
+        <v>0.3270533301567724</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.9281840992845289</v>
+        <v>0.6071676362509919</v>
       </c>
       <c r="G12">
-        <v>0.3737363838104955</v>
+        <v>0.2959077897354376</v>
       </c>
       <c r="H12">
-        <v>0.527263147789796</v>
+        <v>0.2068737497098851</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2735542907708606</v>
+        <v>0.1618973469000764</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5631747922779908</v>
+        <v>1.345056838549738</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.742578378205735</v>
+        <v>1.012275928634722</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.369648040257005</v>
+        <v>4.130501072851814</v>
       </c>
       <c r="C13">
-        <v>0.3148445554956254</v>
+        <v>0.943448367663251</v>
       </c>
       <c r="D13">
-        <v>0.3594014155131617</v>
+        <v>0.3256431423882589</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.9282749019059011</v>
+        <v>0.6051472579166131</v>
       </c>
       <c r="G13">
-        <v>0.3737958189799997</v>
+        <v>0.29469999628094</v>
       </c>
       <c r="H13">
-        <v>0.5275232461067105</v>
+        <v>0.2067022592092371</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2735870560793146</v>
+        <v>0.1614127422653553</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5610430269818778</v>
+        <v>1.337816964502338</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.743234160571745</v>
+        <v>1.009333755291635</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.347085386009837</v>
+        <v>4.058586554683586</v>
       </c>
       <c r="C14">
-        <v>0.309851431830424</v>
+        <v>0.9281575116681324</v>
       </c>
       <c r="D14">
-        <v>0.35844714873096</v>
+        <v>0.3210532070528416</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.9285889004202019</v>
+        <v>0.5986157004896384</v>
       </c>
       <c r="G14">
-        <v>0.374000162718815</v>
+        <v>0.2908028500782223</v>
       </c>
       <c r="H14">
-        <v>0.5283799974934027</v>
+        <v>0.206165875615369</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2736984190044893</v>
+        <v>0.1598459922130857</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5540914947200264</v>
+        <v>1.314222856567525</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.745412679598815</v>
+        <v>0.9998748365660788</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.333260502620817</v>
+        <v>4.014561372070943</v>
       </c>
       <c r="C15">
-        <v>0.306791671589167</v>
+        <v>0.9187961886890434</v>
       </c>
       <c r="D15">
-        <v>0.3578650898742382</v>
+        <v>0.3182485635124976</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.9287949628392198</v>
+        <v>0.5946584897448304</v>
       </c>
       <c r="G15">
-        <v>0.3741334020662777</v>
+        <v>0.2884474097371026</v>
       </c>
       <c r="H15">
-        <v>0.5289113239421823</v>
+        <v>0.2058547342800949</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2737700953774294</v>
+        <v>0.1588966831899441</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5498339646095189</v>
+        <v>1.299783333135522</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.746777708998991</v>
+        <v>0.9941843944519064</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.253966436916244</v>
+        <v>3.762618283941492</v>
       </c>
       <c r="C16">
-        <v>0.2892374083064055</v>
+        <v>0.8652178089380982</v>
       </c>
       <c r="D16">
-        <v>0.3545672867839897</v>
+        <v>0.3022773877732874</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9301861117321195</v>
+        <v>0.5726286394190012</v>
       </c>
       <c r="G16">
-        <v>0.375020460656323</v>
+        <v>0.2754189216147793</v>
       </c>
       <c r="H16">
-        <v>0.5320563622364745</v>
+        <v>0.204331435555801</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2742338959863631</v>
+        <v>0.1536107121515329</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5254435926829473</v>
+        <v>1.217217297206048</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.755068962836461</v>
+        <v>0.9631113110321223</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.205261778958402</v>
+        <v>3.608339131145783</v>
       </c>
       <c r="C17">
-        <v>0.2784509455536011</v>
+        <v>0.8324037048725188</v>
       </c>
       <c r="D17">
-        <v>0.3525779556058382</v>
+        <v>0.2925660998171082</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9312270238202061</v>
+        <v>0.5596701651970335</v>
       </c>
       <c r="G17">
-        <v>0.3756746219459757</v>
+        <v>0.2678285486180272</v>
       </c>
       <c r="H17">
-        <v>0.5340751248454012</v>
+        <v>0.2036211692266718</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.274565727648806</v>
+        <v>0.1505003754867289</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.510488286956388</v>
+        <v>1.166715298220652</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.760573113049105</v>
+        <v>0.9453685792136781</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.177226567920798</v>
+        <v>3.519693020644127</v>
       </c>
       <c r="C18">
-        <v>0.2722405762334574</v>
+        <v>0.8135476970273317</v>
       </c>
       <c r="D18">
-        <v>0.3514461877933286</v>
+        <v>0.2870107865099527</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.931894567369298</v>
+        <v>0.5524128682024383</v>
       </c>
       <c r="G18">
-        <v>0.3760912008868758</v>
+        <v>0.263604065822868</v>
       </c>
       <c r="H18">
-        <v>0.5352690936400322</v>
+        <v>0.2032921387876243</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2747739591590488</v>
+        <v>0.1487580930875723</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5018892787616096</v>
+        <v>1.137718256270944</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.76389223052783</v>
+        <v>0.9356285001922373</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.167730676577776</v>
+        <v>3.489693559015336</v>
       </c>
       <c r="C19">
-        <v>0.2701367870355682</v>
+        <v>0.8071662282598027</v>
       </c>
       <c r="D19">
-        <v>0.3510651310187285</v>
+        <v>0.2851349355722448</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.9321324032640064</v>
+        <v>0.5499885808434257</v>
       </c>
       <c r="G19">
-        <v>0.3762391638339011</v>
+        <v>0.262197395736834</v>
       </c>
       <c r="H19">
-        <v>0.5356789878041752</v>
+        <v>0.2031941195393969</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2748474449036209</v>
+        <v>0.1481760252923792</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4989783144933568</v>
+        <v>1.127908583429829</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.765042329116753</v>
+        <v>0.9324087157866785</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.210448719639487</v>
+        <v>3.624752717056708</v>
       </c>
       <c r="C20">
-        <v>0.2795998363276055</v>
+        <v>0.835894931191774</v>
       </c>
       <c r="D20">
-        <v>0.3527884362970894</v>
+        <v>0.293596708953757</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.9311090910157986</v>
+        <v>0.5610291402948064</v>
       </c>
       <c r="G20">
-        <v>0.3756008099807175</v>
+        <v>0.2686217890335456</v>
       </c>
       <c r="H20">
-        <v>0.5338568259324816</v>
+        <v>0.2036884864518029</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2745286054883138</v>
+        <v>0.1508265992318272</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5120800097041354</v>
+        <v>1.172086007313652</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.759971317958019</v>
+        <v>0.9472087504916686</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.353713547643906</v>
+        <v>4.079704408793475</v>
       </c>
       <c r="C21">
-        <v>0.3113183108098383</v>
+        <v>0.9326477997094003</v>
       </c>
       <c r="D21">
-        <v>0.3587269281517393</v>
+        <v>0.3223999516226428</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.9284938099354534</v>
+        <v>0.6005250507241655</v>
       </c>
       <c r="G21">
-        <v>0.3739384591017227</v>
+        <v>0.2919408968605381</v>
       </c>
       <c r="H21">
-        <v>0.5281269855026096</v>
+        <v>0.2063197791530911</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2736649871759482</v>
+        <v>0.1603040117322436</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5561332282988616</v>
+        <v>1.321150375274556</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.744766412497938</v>
+        <v>1.002631479762243</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.447140807256631</v>
+        <v>4.37810798472475</v>
       </c>
       <c r="C22">
-        <v>0.3319891306659031</v>
+        <v>0.9960886827889226</v>
       </c>
       <c r="D22">
-        <v>0.3627181429775135</v>
+        <v>0.3415260749584519</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.9273988940914464</v>
+        <v>0.6282647558831087</v>
       </c>
       <c r="G22">
-        <v>0.3732130872014778</v>
+        <v>0.3085811987493088</v>
       </c>
       <c r="H22">
-        <v>0.5246749361097756</v>
+        <v>0.2088107353891075</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2732555378671648</v>
+        <v>0.1669568377751887</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5849466769321623</v>
+        <v>1.419121635818001</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.736199122173474</v>
+        <v>1.043427957447818</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.397296238576416</v>
+        <v>4.218733888249176</v>
       </c>
       <c r="C23">
-        <v>0.3209622762861102</v>
+        <v>0.9622076395122292</v>
       </c>
       <c r="D23">
-        <v>0.3605779208992459</v>
+        <v>0.3312889371368613</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.9279269971501023</v>
+        <v>0.6132741123846444</v>
       </c>
       <c r="G23">
-        <v>0.3735670973478022</v>
+        <v>0.2995647064644942</v>
       </c>
       <c r="H23">
-        <v>0.5264905561667916</v>
+        <v>0.2074074937856665</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2734598743770462</v>
+        <v>0.1633619490652549</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5695665461823438</v>
+        <v>1.366777190439578</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.740646046197043</v>
+        <v>1.021213656329962</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.208103810319642</v>
+        <v>3.617331978661582</v>
       </c>
       <c r="C24">
-        <v>0.279080451083928</v>
+        <v>0.8343165194625612</v>
       </c>
       <c r="D24">
-        <v>0.3526932408236405</v>
+        <v>0.2931306841984309</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.9311621931802279</v>
+        <v>0.5604141493836394</v>
       </c>
       <c r="G24">
-        <v>0.3756340542599048</v>
+        <v>0.268262732611376</v>
       </c>
       <c r="H24">
-        <v>0.5339554149747414</v>
+        <v>0.2036578059830276</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2745453340434594</v>
+        <v>0.150678970998392</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5113603949379097</v>
+        <v>1.169657794853478</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.760242907667575</v>
+        <v>0.9463753795297549</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.003210874228671</v>
+        <v>2.971982212045873</v>
       </c>
       <c r="C25">
-        <v>0.2336657000380171</v>
+        <v>0.6970215661425812</v>
       </c>
       <c r="D25">
-        <v>0.3446644503275564</v>
+        <v>0.2531159301554027</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.9372828651533922</v>
+        <v>0.5108015223699027</v>
       </c>
       <c r="G25">
-        <v>0.3794039886594049</v>
+        <v>0.2398294845339421</v>
       </c>
       <c r="H25">
-        <v>0.5432624022774917</v>
+        <v>0.2026206953970942</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2763801121061533</v>
+        <v>0.1387623331586738</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4486879843561553</v>
+        <v>0.9589083326613945</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.787238234351477</v>
+        <v>0.8832133883022522</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_40/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.498373318410302</v>
+        <v>1.192716090925416</v>
       </c>
       <c r="C2">
-        <v>0.5962400364603297</v>
+        <v>0.1062650695760681</v>
       </c>
       <c r="D2">
-        <v>0.2244793656093975</v>
+        <v>0.0693217050474999</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4797500121673011</v>
+        <v>1.109588245185357</v>
       </c>
       <c r="G2">
-        <v>0.2227835060253582</v>
+        <v>0.8294836251961613</v>
       </c>
       <c r="H2">
-        <v>0.204134498560407</v>
+        <v>0.01211942354814251</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01307045791645356</v>
       </c>
       <c r="J2">
-        <v>0.1312944778061436</v>
+        <v>0.6101997196753075</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.6481775037887374</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.07445940453748889</v>
       </c>
       <c r="M2">
-        <v>0.8048275302015853</v>
+        <v>1.071611938004708</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2660207252425124</v>
       </c>
       <c r="O2">
-        <v>0.8496897835826189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1.16115932447423</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.177783336433606</v>
+        <v>1.043405005144194</v>
       </c>
       <c r="C3">
-        <v>0.5280180951039597</v>
+        <v>0.09364803330011284</v>
       </c>
       <c r="D3">
-        <v>0.2055152423591124</v>
+        <v>0.06159175475185918</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4617157653824151</v>
+        <v>1.065120808934473</v>
       </c>
       <c r="G3">
-        <v>0.2133392212940706</v>
+        <v>0.79657025875062</v>
       </c>
       <c r="H3">
-        <v>0.2064397062782106</v>
+        <v>0.01533331716021086</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.01629022207435371</v>
       </c>
       <c r="J3">
-        <v>0.1269522112958299</v>
+        <v>0.5992576204725424</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.6350101407243187</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.06939647125218684</v>
       </c>
       <c r="M3">
-        <v>0.7008538770759145</v>
+        <v>0.9332534426408188</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2366571379723439</v>
       </c>
       <c r="O3">
-        <v>0.8340979070796379</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1.193990617316963</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.980951711096708</v>
+        <v>0.9514839385623191</v>
       </c>
       <c r="C4">
-        <v>0.4861351627712907</v>
+        <v>0.08601011349045962</v>
       </c>
       <c r="D4">
-        <v>0.1940678815176398</v>
+        <v>0.05686609398180309</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4520019897363525</v>
+        <v>1.038329205248402</v>
       </c>
       <c r="G4">
-        <v>0.2084823121771677</v>
+        <v>0.7768091110474842</v>
       </c>
       <c r="H4">
-        <v>0.2084426549527905</v>
+        <v>0.01757733713397935</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01856162728685495</v>
       </c>
       <c r="J4">
-        <v>0.1246111425637082</v>
+        <v>0.5928418355425151</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.627126137686087</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.06624298745324708</v>
       </c>
       <c r="M4">
-        <v>0.6371651945209322</v>
+        <v>0.8483584971569371</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2186903661872606</v>
       </c>
       <c r="O4">
-        <v>0.8277415113439019</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1.21466477510957</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.900721382253863</v>
+        <v>0.9131482223950229</v>
       </c>
       <c r="C5">
-        <v>0.4690646796091471</v>
+        <v>0.08310089196800163</v>
       </c>
       <c r="D5">
-        <v>0.1894494592566929</v>
+        <v>0.05498639778427616</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4483677834274786</v>
+        <v>1.026775768021373</v>
       </c>
       <c r="G5">
-        <v>0.2067261690842983</v>
+        <v>0.7681425789902079</v>
       </c>
       <c r="H5">
-        <v>0.209400482588272</v>
+        <v>0.01856408218146866</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01965150810473038</v>
       </c>
       <c r="J5">
-        <v>0.1237347642090967</v>
+        <v>0.5899324662014465</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6234042334261716</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.06489378472920393</v>
       </c>
       <c r="M5">
-        <v>0.6112404176458455</v>
+        <v>0.8135752307215682</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2115073187855216</v>
       </c>
       <c r="O5">
-        <v>0.8259181486533578</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1.222859470073042</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.887397361166052</v>
+        <v>0.9057856148375265</v>
       </c>
       <c r="C6">
-        <v>0.4662298485686165</v>
+        <v>0.08283917927716544</v>
       </c>
       <c r="D6">
-        <v>0.1886852960216174</v>
+        <v>0.05472528084503381</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4477834109465419</v>
+        <v>1.023937881922706</v>
       </c>
       <c r="G6">
-        <v>0.2064476464063745</v>
+        <v>0.7658294927828706</v>
       </c>
       <c r="H6">
-        <v>0.2095679081676423</v>
+        <v>0.0187397786805979</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0199572301618911</v>
       </c>
       <c r="J6">
-        <v>0.1235938139291406</v>
+        <v>0.5890034570047646</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6221080135633024</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.06460517244739705</v>
       </c>
       <c r="M6">
-        <v>0.6069371134274917</v>
+        <v>0.8075617067519261</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2104686141159391</v>
       </c>
       <c r="O6">
-        <v>0.8256605087651678</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>1.223793376325196</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.979869806229289</v>
+        <v>0.9482460193795248</v>
       </c>
       <c r="C7">
-        <v>0.4859049611944499</v>
+        <v>0.08657272242235337</v>
       </c>
       <c r="D7">
-        <v>0.1940054115411129</v>
+        <v>0.05697950898689186</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4519516873678668</v>
+        <v>1.03564290114921</v>
       </c>
       <c r="G7">
-        <v>0.2084577426719463</v>
+        <v>0.7742879214106893</v>
       </c>
       <c r="H7">
-        <v>0.2084550070711373</v>
+        <v>0.01761096345074464</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.01888742526367793</v>
       </c>
       <c r="J7">
-        <v>0.1245990144156082</v>
+        <v>0.5915740247378238</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6252167419635235</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.0660503887748547</v>
       </c>
       <c r="M7">
-        <v>0.6368154587760557</v>
+        <v>0.8472363606299211</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2190130567860678</v>
       </c>
       <c r="O7">
-        <v>0.8277138697284272</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>1.213603400030511</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.38781709132985</v>
+        <v>1.137642390757975</v>
       </c>
       <c r="C8">
-        <v>0.5727132605754548</v>
+        <v>0.1026937150704441</v>
       </c>
       <c r="D8">
-        <v>0.2178978607060742</v>
+        <v>0.06683649773513878</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4732388325976657</v>
+        <v>1.090803521737698</v>
       </c>
       <c r="G8">
-        <v>0.2193231307671155</v>
+        <v>0.8148615585237309</v>
       </c>
       <c r="H8">
-        <v>0.2048036082962312</v>
+        <v>0.01319237649299371</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.01449020237186538</v>
       </c>
       <c r="J8">
-        <v>0.1297272436419377</v>
+        <v>0.6047446093889732</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6411424024337364</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.07249162358609951</v>
       </c>
       <c r="M8">
-        <v>0.768940192697265</v>
+        <v>1.023011135302255</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2564415965032651</v>
       </c>
       <c r="O8">
-        <v>0.8436200726680454</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1.170890237127928</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.189043167784746</v>
+        <v>1.512292943076687</v>
       </c>
       <c r="C9">
-        <v>0.743205602363048</v>
+        <v>0.1342405003825178</v>
       </c>
       <c r="D9">
-        <v>0.2664565263949754</v>
+        <v>0.08610535078641846</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5266057358247949</v>
+        <v>1.207866981482255</v>
       </c>
       <c r="G9">
-        <v>0.2487586632239882</v>
+        <v>0.9025799255361733</v>
       </c>
       <c r="H9">
-        <v>0.2025965211345095</v>
+        <v>0.006754096754574224</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.007847211030873602</v>
       </c>
       <c r="J9">
-        <v>0.1425601027129844</v>
+        <v>0.6352904441694136</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.6773918516103876</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.08510963240416913</v>
       </c>
       <c r="M9">
-        <v>1.029696911126599</v>
+        <v>1.369756313966349</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.3296873867277554</v>
       </c>
       <c r="O9">
-        <v>0.9023373104213874</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1.093335237487398</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.780235795814917</v>
+        <v>1.774897443768907</v>
       </c>
       <c r="C10">
-        <v>0.8689646974886784</v>
+        <v>0.1596455247012472</v>
       </c>
       <c r="D10">
-        <v>0.3033897299369812</v>
+        <v>0.09855846987336747</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5741344547038665</v>
+        <v>1.280697395350373</v>
       </c>
       <c r="G10">
-        <v>0.2763046481294893</v>
+        <v>0.957190235303699</v>
       </c>
       <c r="H10">
-        <v>0.204423462046762</v>
+        <v>0.00389092644012079</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.004835984806381255</v>
       </c>
       <c r="J10">
-        <v>0.1539720922914611</v>
+        <v>0.6531279372408392</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.6965989131337125</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.09070138753266832</v>
       </c>
       <c r="M10">
-        <v>1.222987081461156</v>
+        <v>1.61970650757803</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.37170273426959</v>
       </c>
       <c r="O10">
-        <v>0.9652003224297516</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>1.034513253276664</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.050166161029267</v>
+        <v>1.796872303711638</v>
       </c>
       <c r="C11">
-        <v>0.9263670620199775</v>
+        <v>0.1822824328942261</v>
       </c>
       <c r="D11">
-        <v>0.3205164715251811</v>
+        <v>0.08818293395303556</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.597856394221985</v>
+        <v>1.18227456581802</v>
       </c>
       <c r="G11">
-        <v>0.2903505524441385</v>
+        <v>0.8813937923683</v>
       </c>
       <c r="H11">
-        <v>0.2061053492505494</v>
+        <v>0.02240520332474816</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.004752609637076688</v>
       </c>
       <c r="J11">
-        <v>0.1596638442066833</v>
+        <v>0.6107306097563168</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.6376066474880204</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.06973122788644304</v>
       </c>
       <c r="M11">
-        <v>1.311460842917867</v>
+        <v>1.683346654452748</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2897286608360332</v>
       </c>
       <c r="O11">
-        <v>0.9987805565932888</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.977176935244696</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.152562580551376</v>
+        <v>1.76324942899808</v>
       </c>
       <c r="C12">
-        <v>0.9481390203897888</v>
+        <v>0.1956238291604819</v>
       </c>
       <c r="D12">
-        <v>0.3270533301567724</v>
+        <v>0.07716648777800827</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.6071676362509919</v>
+        <v>1.090183099072334</v>
       </c>
       <c r="G12">
-        <v>0.2959077897354376</v>
+        <v>0.8114107166362174</v>
       </c>
       <c r="H12">
-        <v>0.2068737497098851</v>
+        <v>0.06130747575782181</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.004693738579836904</v>
       </c>
       <c r="J12">
-        <v>0.1618973469000764</v>
+        <v>0.5737731927359278</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.5885953009791152</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.05991434281637664</v>
       </c>
       <c r="M12">
-        <v>1.345056838549738</v>
+        <v>1.684250525472322</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.2205767766937896</v>
       </c>
       <c r="O12">
-        <v>1.012275928634722</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.9494516892104063</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.130501072851814</v>
+        <v>1.680789531786246</v>
       </c>
       <c r="C13">
-        <v>0.943448367663251</v>
+        <v>0.2033713216396364</v>
       </c>
       <c r="D13">
-        <v>0.3256431423882589</v>
+        <v>0.06530813165715443</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.6051472579166131</v>
+        <v>0.9937604838258096</v>
       </c>
       <c r="G13">
-        <v>0.29469999628094</v>
+        <v>0.738069490849341</v>
       </c>
       <c r="H13">
-        <v>0.2067022592092371</v>
+        <v>0.1175730004896138</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.005053229367031342</v>
       </c>
       <c r="J13">
-        <v>0.1614127422653553</v>
+        <v>0.5368930627522275</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.5415111143155826</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.0577149937494017</v>
       </c>
       <c r="M13">
-        <v>1.337816964502338</v>
+        <v>1.635770072926533</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1583145230829786</v>
       </c>
       <c r="O13">
-        <v>1.009333755291635</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.9403941534840272</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.058586554683586</v>
+        <v>1.600591961320958</v>
       </c>
       <c r="C14">
-        <v>0.9281575116681324</v>
+        <v>0.2065044530507407</v>
       </c>
       <c r="D14">
-        <v>0.3210532070528416</v>
+        <v>0.05682267439715361</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5986157004896384</v>
+        <v>0.9245961054177343</v>
       </c>
       <c r="G14">
-        <v>0.2908028500782223</v>
+        <v>0.685294029588249</v>
       </c>
       <c r="H14">
-        <v>0.206165875615369</v>
+        <v>0.1674150709636564</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.005612115609244128</v>
       </c>
       <c r="J14">
-        <v>0.1598459922130857</v>
+        <v>0.5111057192961965</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.5094943658492639</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.06074103399490127</v>
       </c>
       <c r="M14">
-        <v>1.314222856567525</v>
+        <v>1.579472127809936</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1196065209784933</v>
       </c>
       <c r="O14">
-        <v>0.9998748365660788</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.9430357531305127</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.014561372070943</v>
+        <v>1.569901787749387</v>
       </c>
       <c r="C15">
-        <v>0.9187961886890434</v>
+        <v>0.2062791588329418</v>
       </c>
       <c r="D15">
-        <v>0.3182485635124976</v>
+        <v>0.05456095632685987</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.5946584897448304</v>
+        <v>0.9058606686142383</v>
       </c>
       <c r="G15">
-        <v>0.2884474097371026</v>
+        <v>0.6708380442572377</v>
       </c>
       <c r="H15">
-        <v>0.2058547342800949</v>
+        <v>0.1801574790339657</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.005988347540403005</v>
       </c>
       <c r="J15">
-        <v>0.1588966831899441</v>
+        <v>0.5044078692097855</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.5013696153012503</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.06195506630668035</v>
       </c>
       <c r="M15">
-        <v>1.299783333135522</v>
+        <v>1.555184283635697</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1105789810509705</v>
       </c>
       <c r="O15">
-        <v>0.9941843944519064</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.9466561033339236</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.762618283941492</v>
+        <v>1.474055555333734</v>
       </c>
       <c r="C16">
-        <v>0.8652178089380982</v>
+        <v>0.193729795015841</v>
       </c>
       <c r="D16">
-        <v>0.3022773877732874</v>
+        <v>0.05201674755512897</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5726286394190012</v>
+        <v>0.8938261322446053</v>
       </c>
       <c r="G16">
-        <v>0.2754189216147793</v>
+        <v>0.6615215964014567</v>
       </c>
       <c r="H16">
-        <v>0.204331435555801</v>
+        <v>0.1686425220855057</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.007310404046886987</v>
       </c>
       <c r="J16">
-        <v>0.1536107121515329</v>
+        <v>0.5036589349009972</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.5020126156307292</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.05997302601662469</v>
       </c>
       <c r="M16">
-        <v>1.217217297206048</v>
+        <v>1.457816060727822</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1071835041479687</v>
       </c>
       <c r="O16">
-        <v>0.9631113110321223</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.9710011613318201</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.608339131145783</v>
+        <v>1.442846327534937</v>
       </c>
       <c r="C17">
-        <v>0.8324037048725188</v>
+        <v>0.1825042830215011</v>
       </c>
       <c r="D17">
-        <v>0.2925660998171082</v>
+        <v>0.05446796440780588</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.5596701651970335</v>
+        <v>0.9208615655216761</v>
       </c>
       <c r="G17">
-        <v>0.2678285486180272</v>
+        <v>0.6820820380058308</v>
       </c>
       <c r="H17">
-        <v>0.2036211692266718</v>
+        <v>0.1315586802740967</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.008072646456118271</v>
       </c>
       <c r="J17">
-        <v>0.1505003754867289</v>
+        <v>0.5166753570163536</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.519221251505023</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.0560504803681372</v>
       </c>
       <c r="M17">
-        <v>1.166715298220652</v>
+        <v>1.413085729883761</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1239887037108787</v>
       </c>
       <c r="O17">
-        <v>0.9453685792136781</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.9881440418800107</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.519693020644127</v>
+        <v>1.465636741951698</v>
       </c>
       <c r="C18">
-        <v>0.8135476970273317</v>
+        <v>0.1707240244139001</v>
       </c>
       <c r="D18">
-        <v>0.2870107865099527</v>
+        <v>0.06175122580103931</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5524128682024383</v>
+        <v>0.9879255263782696</v>
       </c>
       <c r="G18">
-        <v>0.263604065822868</v>
+        <v>0.7335105407455984</v>
       </c>
       <c r="H18">
-        <v>0.2032921387876243</v>
+        <v>0.07883700361951185</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.008006281659617365</v>
       </c>
       <c r="J18">
-        <v>0.1487580930875723</v>
+        <v>0.5443551693990116</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.5550287097558098</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.05428080271544733</v>
       </c>
       <c r="M18">
-        <v>1.137718256270944</v>
+        <v>1.408608900532215</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1648494968579897</v>
       </c>
       <c r="O18">
-        <v>0.9356285001922373</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1.004528078912769</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.489693559015336</v>
+        <v>1.525344360746146</v>
       </c>
       <c r="C19">
-        <v>0.8071662282598027</v>
+        <v>0.1610466880037649</v>
       </c>
       <c r="D19">
-        <v>0.2851349355722448</v>
+        <v>0.07320173185554069</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.5499885808434257</v>
+        <v>1.081366893630275</v>
       </c>
       <c r="G19">
-        <v>0.262197395736834</v>
+        <v>0.804484445855806</v>
       </c>
       <c r="H19">
-        <v>0.2031941195393969</v>
+        <v>0.03300266394468565</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.00783767015916581</v>
       </c>
       <c r="J19">
-        <v>0.1481760252923792</v>
+        <v>0.5808635209816373</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.6024100487383208</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.06067593540427652</v>
       </c>
       <c r="M19">
-        <v>1.127908583429829</v>
+        <v>1.43533510692501</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2303845195599195</v>
       </c>
       <c r="O19">
-        <v>0.9324087157866785</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1.023211020962317</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.624752717056708</v>
+        <v>1.696808465705658</v>
       </c>
       <c r="C20">
-        <v>0.835894931191774</v>
+        <v>0.1549026822724073</v>
       </c>
       <c r="D20">
-        <v>0.293596708953757</v>
+        <v>0.0956372205135807</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.5610291402948064</v>
+        <v>1.252915583675218</v>
       </c>
       <c r="G20">
-        <v>0.2686217890335456</v>
+        <v>0.9347483819638427</v>
       </c>
       <c r="H20">
-        <v>0.2036884864518029</v>
+        <v>0.004558209243729738</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.006404915197777861</v>
       </c>
       <c r="J20">
-        <v>0.1508265992318272</v>
+        <v>0.6443228283277165</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.6854533054960754</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.08856316503066708</v>
       </c>
       <c r="M20">
-        <v>1.172086007313652</v>
+        <v>1.551615358305668</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3614437735854636</v>
       </c>
       <c r="O20">
-        <v>0.9472087504916686</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>1.046496644333526</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.079704408793475</v>
+        <v>1.916409420186199</v>
       </c>
       <c r="C21">
-        <v>0.9326477997094003</v>
+        <v>0.1726754066407921</v>
       </c>
       <c r="D21">
-        <v>0.3223999516226428</v>
+        <v>0.1081420337715002</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.6005250507241655</v>
+        <v>1.334907855171025</v>
       </c>
       <c r="G21">
-        <v>0.2919408968605381</v>
+        <v>0.9969889248708341</v>
       </c>
       <c r="H21">
-        <v>0.2063197791530911</v>
+        <v>0.002375556033429316</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.004357419537668328</v>
       </c>
       <c r="J21">
-        <v>0.1603040117322436</v>
+        <v>0.6683228423937919</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.7137988267755659</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.09824152756286253</v>
       </c>
       <c r="M21">
-        <v>1.321150375274556</v>
+        <v>1.753013464178764</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.4130230135392594</v>
       </c>
       <c r="O21">
-        <v>1.002631479762243</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>1.009464387894379</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.37810798472475</v>
+        <v>2.058231373425144</v>
       </c>
       <c r="C22">
-        <v>0.9960886827889226</v>
+        <v>0.184257944512936</v>
       </c>
       <c r="D22">
-        <v>0.3415260749584519</v>
+        <v>0.1151897724802069</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.6282647558831087</v>
+        <v>1.384823287757413</v>
       </c>
       <c r="G22">
-        <v>0.3085811987493088</v>
+        <v>1.035602869826761</v>
       </c>
       <c r="H22">
-        <v>0.2088107353891075</v>
+        <v>0.001431411219009027</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.003064890893021754</v>
       </c>
       <c r="J22">
-        <v>0.1669568377751887</v>
+        <v>0.683030875099746</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.7310517827220266</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1030359600827282</v>
       </c>
       <c r="M22">
-        <v>1.419121635818001</v>
+        <v>1.883114614900506</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.4399299344768508</v>
       </c>
       <c r="O22">
-        <v>1.043427957447818</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.9849767233907976</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.218733888249176</v>
+        <v>1.9858685029252</v>
       </c>
       <c r="C23">
-        <v>0.9622076395122292</v>
+        <v>0.1773139784567803</v>
       </c>
       <c r="D23">
-        <v>0.3312889371368613</v>
+        <v>0.1112568424169922</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.6132741123846444</v>
+        <v>1.361072846272009</v>
       </c>
       <c r="G23">
-        <v>0.2995647064644942</v>
+        <v>1.017743274743012</v>
       </c>
       <c r="H23">
-        <v>0.2074074937856665</v>
+        <v>0.001897412764009454</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.003388623666849888</v>
       </c>
       <c r="J23">
-        <v>0.1633619490652549</v>
+        <v>0.6765651889320168</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.723974066592838</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1006844551168058</v>
       </c>
       <c r="M23">
-        <v>1.366777190439578</v>
+        <v>1.81445606361612</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.4250435064608666</v>
       </c>
       <c r="O23">
-        <v>1.021213656329962</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.999128265878138</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.617331978661582</v>
+        <v>1.706677974436019</v>
       </c>
       <c r="C24">
-        <v>0.8343165194625612</v>
+        <v>0.1526308565445476</v>
       </c>
       <c r="D24">
-        <v>0.2931306841984309</v>
+        <v>0.09670425093622725</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.5604141493836394</v>
+        <v>1.268034342368139</v>
       </c>
       <c r="G24">
-        <v>0.268262732611376</v>
+        <v>0.9471087048447941</v>
       </c>
       <c r="H24">
-        <v>0.2036578059830276</v>
+        <v>0.004333331863495715</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.005836990458485403</v>
       </c>
       <c r="J24">
-        <v>0.150678970998392</v>
+        <v>0.6506631961550227</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.6944050495751881</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.09143320158356616</v>
       </c>
       <c r="M24">
-        <v>1.169657794853478</v>
+        <v>1.553991611160825</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3697614423887927</v>
       </c>
       <c r="O24">
-        <v>0.9463753795297549</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>1.052161276336953</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.971982212045873</v>
+        <v>1.406051355265703</v>
       </c>
       <c r="C25">
-        <v>0.6970215661425812</v>
+        <v>0.1266879445622209</v>
       </c>
       <c r="D25">
-        <v>0.2531159301554027</v>
+        <v>0.08112269245882686</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.5108015223699027</v>
+        <v>1.171128656328065</v>
       </c>
       <c r="G25">
-        <v>0.2398294845339421</v>
+        <v>0.8740630029124787</v>
       </c>
       <c r="H25">
-        <v>0.2026206953970942</v>
+        <v>0.008261250403336889</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.009872353225258479</v>
       </c>
       <c r="J25">
-        <v>0.1387623331586738</v>
+        <v>0.6245400719793821</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.6640548891789777</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.08141092738449274</v>
       </c>
       <c r="M25">
-        <v>0.9589083326613945</v>
+        <v>1.274576227964928</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.3105641339306686</v>
       </c>
       <c r="O25">
-        <v>0.8832133883022522</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>1.111943862204331</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_40/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.192716090925416</v>
+        <v>1.110414738689826</v>
       </c>
       <c r="C2">
-        <v>0.1062650695760681</v>
+        <v>0.1153896902886657</v>
       </c>
       <c r="D2">
-        <v>0.0693217050474999</v>
+        <v>0.07484507520404549</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.109588245185357</v>
+        <v>1.010047071950346</v>
       </c>
       <c r="G2">
-        <v>0.8294836251961613</v>
+        <v>0.7275124885456563</v>
       </c>
       <c r="H2">
-        <v>0.01211942354814251</v>
+        <v>0.009934093687273909</v>
       </c>
       <c r="I2">
-        <v>0.01307045791645356</v>
+        <v>0.00969067243306565</v>
       </c>
       <c r="J2">
-        <v>0.6101997196753075</v>
+        <v>0.5678742397082459</v>
       </c>
       <c r="K2">
-        <v>0.6481775037887374</v>
+        <v>0.5639256686345249</v>
       </c>
       <c r="L2">
-        <v>0.07445940453748889</v>
+        <v>0.2394720701177349</v>
       </c>
       <c r="M2">
-        <v>1.071611938004708</v>
+        <v>0.1851503256837219</v>
       </c>
       <c r="N2">
-        <v>0.2660207252425124</v>
+        <v>0.06875998688905938</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.056476034007176</v>
       </c>
       <c r="P2">
-        <v>1.16115932447423</v>
+        <v>0.2865266937541975</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>1.083115800741103</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.043405005144194</v>
+        <v>0.9737466709096054</v>
       </c>
       <c r="C3">
-        <v>0.09364803330011284</v>
+        <v>0.09961749746067028</v>
       </c>
       <c r="D3">
-        <v>0.06159175475185918</v>
+        <v>0.06648513361091801</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.065120808934473</v>
+        <v>0.9747266499351355</v>
       </c>
       <c r="G3">
-        <v>0.79657025875062</v>
+        <v>0.7058653057523685</v>
       </c>
       <c r="H3">
-        <v>0.01533331716021086</v>
+        <v>0.01262487762417219</v>
       </c>
       <c r="I3">
-        <v>0.01629022207435371</v>
+        <v>0.01210511446267848</v>
       </c>
       <c r="J3">
-        <v>0.5992576204725424</v>
+        <v>0.5563415628704433</v>
       </c>
       <c r="K3">
-        <v>0.6350101407243187</v>
+        <v>0.5566365290952824</v>
       </c>
       <c r="L3">
-        <v>0.06939647125218684</v>
+        <v>0.2415837450433003</v>
       </c>
       <c r="M3">
-        <v>0.9332534426408188</v>
+        <v>0.1791961603349925</v>
       </c>
       <c r="N3">
-        <v>0.2366571379723439</v>
+        <v>0.06457741725338551</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.9209896323084763</v>
       </c>
       <c r="P3">
-        <v>1.193990617316963</v>
+        <v>0.2552887356775386</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>1.115732642888139</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9514839385623191</v>
+        <v>0.8893544381503773</v>
       </c>
       <c r="C4">
-        <v>0.08601011349045962</v>
+        <v>0.09011270473055788</v>
       </c>
       <c r="D4">
-        <v>0.05686609398180309</v>
+        <v>0.06138207667054729</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.038329205248402</v>
+        <v>0.9533736141286298</v>
       </c>
       <c r="G4">
-        <v>0.7768091110474842</v>
+        <v>0.693013523111162</v>
       </c>
       <c r="H4">
-        <v>0.01757733713397935</v>
+        <v>0.01450806395935375</v>
       </c>
       <c r="I4">
-        <v>0.01856162728685495</v>
+        <v>0.01382823259079613</v>
       </c>
       <c r="J4">
-        <v>0.5928418355425151</v>
+        <v>0.5492869305337535</v>
       </c>
       <c r="K4">
-        <v>0.627126137686087</v>
+        <v>0.552246192538675</v>
       </c>
       <c r="L4">
-        <v>0.06624298745324708</v>
+        <v>0.2428087099776306</v>
       </c>
       <c r="M4">
-        <v>0.8483584971569371</v>
+        <v>0.1761924714336125</v>
       </c>
       <c r="N4">
-        <v>0.2186903661872606</v>
+        <v>0.06195933141396281</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.8377394042980768</v>
       </c>
       <c r="P4">
-        <v>1.21466477510957</v>
+        <v>0.2361999977692051</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>1.136287021614402</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9131482223950229</v>
+        <v>0.8540682398042634</v>
       </c>
       <c r="C5">
-        <v>0.08310089196800163</v>
+        <v>0.08648131081075405</v>
       </c>
       <c r="D5">
-        <v>0.05498639778427616</v>
+        <v>0.05935158988617673</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.026775768021373</v>
+        <v>0.9440424817957123</v>
       </c>
       <c r="G5">
-        <v>0.7681425789902079</v>
+        <v>0.6872235615069116</v>
       </c>
       <c r="H5">
-        <v>0.01856408218146866</v>
+        <v>0.01533727155060705</v>
       </c>
       <c r="I5">
-        <v>0.01965150810473038</v>
+        <v>0.01469237934017009</v>
       </c>
       <c r="J5">
-        <v>0.5899324662014465</v>
+        <v>0.5460641247436229</v>
       </c>
       <c r="K5">
-        <v>0.6234042334261716</v>
+        <v>0.5499750515348012</v>
       </c>
       <c r="L5">
-        <v>0.06489378472920393</v>
+        <v>0.2430571380685009</v>
       </c>
       <c r="M5">
-        <v>0.8135752307215682</v>
+        <v>0.17498790357687</v>
       </c>
       <c r="N5">
-        <v>0.2115073187855216</v>
+        <v>0.06083173233346173</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.8036031125439536</v>
       </c>
       <c r="P5">
-        <v>1.222859470073042</v>
+        <v>0.2285678362793107</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>1.144518198745965</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9057856148375265</v>
+        <v>0.847255585008071</v>
       </c>
       <c r="C6">
-        <v>0.08283917927716544</v>
+        <v>0.08612676218393744</v>
       </c>
       <c r="D6">
-        <v>0.05472528084503381</v>
+        <v>0.05906630886917696</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.023937881922706</v>
+        <v>0.9416315849531287</v>
       </c>
       <c r="G6">
-        <v>0.7658294927828706</v>
+        <v>0.6854654954014165</v>
       </c>
       <c r="H6">
-        <v>0.0187397786805979</v>
+        <v>0.01548514076150326</v>
       </c>
       <c r="I6">
-        <v>0.0199572301618911</v>
+        <v>0.01497447262181595</v>
       </c>
       <c r="J6">
-        <v>0.5890034570047646</v>
+        <v>0.5450969096860092</v>
       </c>
       <c r="K6">
-        <v>0.6221080135633024</v>
+        <v>0.5489860561471858</v>
       </c>
       <c r="L6">
-        <v>0.06460517244739705</v>
+        <v>0.2428138135503737</v>
       </c>
       <c r="M6">
-        <v>0.8075617067519261</v>
+        <v>0.1746216710818711</v>
       </c>
       <c r="N6">
-        <v>0.2104686141159391</v>
+        <v>0.06058548926169038</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7977012240045269</v>
       </c>
       <c r="P6">
-        <v>1.223793376325196</v>
+        <v>0.2274558732679139</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>1.14555943262593</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9482460193795248</v>
+        <v>0.8856478593041572</v>
       </c>
       <c r="C7">
-        <v>0.08657272242235337</v>
+        <v>0.09041416819692927</v>
       </c>
       <c r="D7">
-        <v>0.05697950898689186</v>
+        <v>0.06168948809735753</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.03564290114921</v>
+        <v>0.9494728306352798</v>
       </c>
       <c r="G7">
-        <v>0.7742879214106893</v>
+        <v>0.693777788344164</v>
       </c>
       <c r="H7">
-        <v>0.01761096345074464</v>
+        <v>0.01454638113892756</v>
       </c>
       <c r="I7">
-        <v>0.01888742526367793</v>
+        <v>0.01420020181573367</v>
       </c>
       <c r="J7">
-        <v>0.5915740247378238</v>
+        <v>0.5426269542494708</v>
       </c>
       <c r="K7">
-        <v>0.6252167419635235</v>
+        <v>0.5498059051701034</v>
       </c>
       <c r="L7">
-        <v>0.0660503887748547</v>
+        <v>0.24172034644711</v>
       </c>
       <c r="M7">
-        <v>0.8472363606299211</v>
+        <v>0.1754609210400595</v>
       </c>
       <c r="N7">
-        <v>0.2190130567860678</v>
+        <v>0.06177934373187455</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.8354771870635034</v>
       </c>
       <c r="P7">
-        <v>1.213603400030511</v>
+        <v>0.2364787885273785</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>1.135063833693065</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.137642390757975</v>
+        <v>1.057787249644065</v>
       </c>
       <c r="C8">
-        <v>0.1026937150704441</v>
+        <v>0.1097248555017245</v>
       </c>
       <c r="D8">
-        <v>0.06683649773513878</v>
+        <v>0.07279622228629989</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.090803521737698</v>
+        <v>0.990024200778798</v>
       </c>
       <c r="G8">
-        <v>0.8148615585237309</v>
+        <v>0.7272256598111255</v>
       </c>
       <c r="H8">
-        <v>0.01319237649299371</v>
+        <v>0.01085768619927434</v>
       </c>
       <c r="I8">
-        <v>0.01449020237186538</v>
+        <v>0.01092295942749288</v>
       </c>
       <c r="J8">
-        <v>0.6047446093889732</v>
+        <v>0.5445611057043607</v>
       </c>
       <c r="K8">
-        <v>0.6411424024337364</v>
+        <v>0.5567847842957434</v>
       </c>
       <c r="L8">
-        <v>0.07249162358609951</v>
+        <v>0.2382636296226543</v>
       </c>
       <c r="M8">
-        <v>1.023011135302255</v>
+        <v>0.1814556742981992</v>
       </c>
       <c r="N8">
-        <v>0.2564415965032651</v>
+        <v>0.06710128643048563</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.005005419407809</v>
       </c>
       <c r="P8">
-        <v>1.170890237127928</v>
+        <v>0.2761654055132823</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>1.091829575991014</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.512292943076687</v>
+        <v>1.39870810461619</v>
       </c>
       <c r="C9">
-        <v>0.1342405003825178</v>
+        <v>0.1491297932233238</v>
       </c>
       <c r="D9">
-        <v>0.08610535078641846</v>
+        <v>0.09387701309009344</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.207866981482255</v>
+        <v>1.08175934652354</v>
       </c>
       <c r="G9">
-        <v>0.9025799255361733</v>
+        <v>0.7894090005163434</v>
       </c>
       <c r="H9">
-        <v>0.006754096754574224</v>
+        <v>0.005486404121372634</v>
       </c>
       <c r="I9">
-        <v>0.007847211030873602</v>
+        <v>0.005919034682206892</v>
       </c>
       <c r="J9">
-        <v>0.6352904441694136</v>
+        <v>0.5700263169060662</v>
       </c>
       <c r="K9">
-        <v>0.6773918516103876</v>
+        <v>0.5768508092744682</v>
       </c>
       <c r="L9">
-        <v>0.08510963240416913</v>
+        <v>0.233371281633012</v>
       </c>
       <c r="M9">
-        <v>1.369756313966349</v>
+        <v>0.2002070911715776</v>
       </c>
       <c r="N9">
-        <v>0.3296873867277554</v>
+        <v>0.07746816808493762</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.342663721210016</v>
       </c>
       <c r="P9">
-        <v>1.093335237487398</v>
+        <v>0.3542021154434281</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>1.014401088131692</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.774897443768907</v>
+        <v>1.633097285552566</v>
       </c>
       <c r="C10">
-        <v>0.1596455247012472</v>
+        <v>0.1785622841274375</v>
       </c>
       <c r="D10">
-        <v>0.09855846987336747</v>
+        <v>0.1087269204207075</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.280697395350373</v>
+        <v>1.129142331595943</v>
       </c>
       <c r="G10">
-        <v>0.957190235303699</v>
+        <v>0.8455007169972788</v>
       </c>
       <c r="H10">
-        <v>0.00389092644012079</v>
+        <v>0.003176275457482891</v>
       </c>
       <c r="I10">
-        <v>0.004835984806381255</v>
+        <v>0.003827597076796252</v>
       </c>
       <c r="J10">
-        <v>0.6531279372408392</v>
+        <v>0.5539838510651975</v>
       </c>
       <c r="K10">
-        <v>0.6965989131337125</v>
+        <v>0.5812081628436516</v>
       </c>
       <c r="L10">
-        <v>0.09070138753266832</v>
+        <v>0.2255418939886766</v>
       </c>
       <c r="M10">
-        <v>1.61970650757803</v>
+        <v>0.2129085618788906</v>
       </c>
       <c r="N10">
-        <v>0.37170273426959</v>
+        <v>0.08177640107320983</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.578520161527166</v>
       </c>
       <c r="P10">
-        <v>1.034513253276664</v>
+        <v>0.3990034230163815</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.9560756374683868</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.796872303711638</v>
+        <v>1.650494919361137</v>
       </c>
       <c r="C11">
-        <v>0.1822824328942261</v>
+        <v>0.198052444527292</v>
       </c>
       <c r="D11">
-        <v>0.08818293395303556</v>
+        <v>0.09990669299372712</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.18227456581802</v>
+        <v>1.025373834917346</v>
       </c>
       <c r="G11">
-        <v>0.8813937923683</v>
+        <v>0.8165145105981964</v>
       </c>
       <c r="H11">
-        <v>0.02240520332474816</v>
+        <v>0.02177746135863501</v>
       </c>
       <c r="I11">
-        <v>0.004752609637076688</v>
+        <v>0.004068219947694907</v>
       </c>
       <c r="J11">
-        <v>0.6107306097563168</v>
+        <v>0.4645059189411143</v>
       </c>
       <c r="K11">
-        <v>0.6376066474880204</v>
+        <v>0.5239634882065545</v>
       </c>
       <c r="L11">
-        <v>0.06973122788644304</v>
+        <v>0.2014342683064498</v>
       </c>
       <c r="M11">
-        <v>1.683346654452748</v>
+        <v>0.1952150525922391</v>
       </c>
       <c r="N11">
-        <v>0.2897286608360332</v>
+        <v>0.06369472425596534</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.626862006040255</v>
       </c>
       <c r="P11">
-        <v>0.977176935244696</v>
+        <v>0.3127200381052972</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.9151250045517547</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.76324942899808</v>
+        <v>1.621390580187636</v>
       </c>
       <c r="C12">
-        <v>0.1956238291604819</v>
+        <v>0.2086036526430917</v>
       </c>
       <c r="D12">
-        <v>0.07716648777800827</v>
+        <v>0.08881622426332569</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.090183099072334</v>
+        <v>0.9393844815388519</v>
       </c>
       <c r="G12">
-        <v>0.8114107166362174</v>
+        <v>0.7719465430832315</v>
       </c>
       <c r="H12">
-        <v>0.06130747575782181</v>
+        <v>0.06067553318552399</v>
       </c>
       <c r="I12">
-        <v>0.004693738579836904</v>
+        <v>0.004038169678127979</v>
       </c>
       <c r="J12">
-        <v>0.5737731927359278</v>
+        <v>0.4169143239476512</v>
       </c>
       <c r="K12">
-        <v>0.5885953009791152</v>
+        <v>0.4819460708221115</v>
       </c>
       <c r="L12">
-        <v>0.05991434281637664</v>
+        <v>0.1857389668050473</v>
       </c>
       <c r="M12">
-        <v>1.684250525472322</v>
+        <v>0.1798574908928749</v>
       </c>
       <c r="N12">
-        <v>0.2205767766937896</v>
+        <v>0.05630641700408479</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.622303084558581</v>
       </c>
       <c r="P12">
-        <v>0.9494516892104063</v>
+        <v>0.2397475153108104</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.9018866333288287</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.680789531786246</v>
+        <v>1.552518505917163</v>
       </c>
       <c r="C13">
-        <v>0.2033713216396364</v>
+        <v>0.2149307587858118</v>
       </c>
       <c r="D13">
-        <v>0.06530813165715443</v>
+        <v>0.07536099484461545</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.9937604838258096</v>
+        <v>0.8604021186580155</v>
       </c>
       <c r="G13">
-        <v>0.738069490849341</v>
+        <v>0.7028434335403801</v>
       </c>
       <c r="H13">
-        <v>0.1175730004896138</v>
+        <v>0.1168513192370568</v>
       </c>
       <c r="I13">
-        <v>0.005053229367031342</v>
+        <v>0.00427180601928967</v>
       </c>
       <c r="J13">
-        <v>0.5368930627522275</v>
+        <v>0.3987808975299316</v>
       </c>
       <c r="K13">
-        <v>0.5415111143155826</v>
+        <v>0.4473427739539417</v>
       </c>
       <c r="L13">
-        <v>0.0577149937494017</v>
+        <v>0.1742713110522374</v>
       </c>
       <c r="M13">
-        <v>1.635770072926533</v>
+        <v>0.1651890818288386</v>
       </c>
       <c r="N13">
-        <v>0.1583145230829786</v>
+        <v>0.05632944574010068</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.578806265863051</v>
       </c>
       <c r="P13">
-        <v>0.9403941534840272</v>
+        <v>0.1738932893641874</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.9052303021640533</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.600591961320958</v>
+        <v>1.4856793502328</v>
       </c>
       <c r="C14">
-        <v>0.2065044530507407</v>
+        <v>0.2177251851318687</v>
       </c>
       <c r="D14">
-        <v>0.05682267439715361</v>
+        <v>0.06523556450723333</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.9245961054177343</v>
+        <v>0.8076001176680521</v>
       </c>
       <c r="G14">
-        <v>0.685294029588249</v>
+        <v>0.6451276002412101</v>
       </c>
       <c r="H14">
-        <v>0.1674150709636564</v>
+        <v>0.1665866643744494</v>
       </c>
       <c r="I14">
-        <v>0.005612115609244128</v>
+        <v>0.004679096116674941</v>
       </c>
       <c r="J14">
-        <v>0.5111057192961965</v>
+        <v>0.3966161985758134</v>
       </c>
       <c r="K14">
-        <v>0.5094943658492639</v>
+        <v>0.425955238748017</v>
       </c>
       <c r="L14">
-        <v>0.06074103399490127</v>
+        <v>0.1677613708948051</v>
       </c>
       <c r="M14">
-        <v>1.579472127809936</v>
+        <v>0.1552496091067539</v>
       </c>
       <c r="N14">
-        <v>0.1196065209784933</v>
+        <v>0.06076690712077593</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.530460128447061</v>
       </c>
       <c r="P14">
-        <v>0.9430357531305127</v>
+        <v>0.132811330886085</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.9145632617575714</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.569901787749387</v>
+        <v>1.459986490313639</v>
       </c>
       <c r="C15">
-        <v>0.2062791588329418</v>
+        <v>0.2177269907369492</v>
       </c>
       <c r="D15">
-        <v>0.05456095632685987</v>
+        <v>0.06235502512652147</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.9058606686142383</v>
+        <v>0.7947524076146664</v>
       </c>
       <c r="G15">
-        <v>0.6708380442572377</v>
+        <v>0.6264362036806972</v>
       </c>
       <c r="H15">
-        <v>0.1801574790339657</v>
+        <v>0.1792771302774696</v>
       </c>
       <c r="I15">
-        <v>0.005988347540403005</v>
+        <v>0.005000650416990382</v>
       </c>
       <c r="J15">
-        <v>0.5044078692097855</v>
+        <v>0.4003073700211601</v>
       </c>
       <c r="K15">
-        <v>0.5013696153012503</v>
+        <v>0.421355545833773</v>
       </c>
       <c r="L15">
-        <v>0.06195506630668035</v>
+        <v>0.1666111097577812</v>
       </c>
       <c r="M15">
-        <v>1.555184283635697</v>
+        <v>0.1527236416789215</v>
       </c>
       <c r="N15">
-        <v>0.1105789810509705</v>
+        <v>0.06231268166359882</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.510021900003494</v>
       </c>
       <c r="P15">
-        <v>0.9466561033339236</v>
+        <v>0.1232166989165719</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.9191613885208554</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.474055555333734</v>
+        <v>1.378967029256643</v>
       </c>
       <c r="C16">
-        <v>0.193729795015841</v>
+        <v>0.2073537680524709</v>
       </c>
       <c r="D16">
-        <v>0.05201674755512897</v>
+        <v>0.05786689077234541</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.8938261322446053</v>
+        <v>0.798990841179922</v>
       </c>
       <c r="G16">
-        <v>0.6615215964014567</v>
+        <v>0.59240635322044</v>
       </c>
       <c r="H16">
-        <v>0.1686425220855057</v>
+        <v>0.1674986177209519</v>
       </c>
       <c r="I16">
-        <v>0.007310404046886987</v>
+        <v>0.005963302396953196</v>
       </c>
       <c r="J16">
-        <v>0.5036589349009972</v>
+        <v>0.4406308535063985</v>
       </c>
       <c r="K16">
-        <v>0.5020126156307292</v>
+        <v>0.4298562531825247</v>
       </c>
       <c r="L16">
-        <v>0.05997302601662469</v>
+        <v>0.1718724580794238</v>
       </c>
       <c r="M16">
-        <v>1.457816060727822</v>
+        <v>0.1527371436553011</v>
       </c>
       <c r="N16">
-        <v>0.1071835041479687</v>
+        <v>0.06033250862772732</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.428522591246917</v>
       </c>
       <c r="P16">
-        <v>0.9710011613318201</v>
+        <v>0.1197381085187814</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.9381694327734564</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.442846327534937</v>
+        <v>1.351148880337234</v>
       </c>
       <c r="C17">
-        <v>0.1825042830215011</v>
+        <v>0.1972752209175894</v>
       </c>
       <c r="D17">
-        <v>0.05446796440780588</v>
+        <v>0.05980125517878321</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9208615655216761</v>
+        <v>0.8289570903064032</v>
       </c>
       <c r="G17">
-        <v>0.6820820380058308</v>
+        <v>0.5996613456109401</v>
       </c>
       <c r="H17">
-        <v>0.1315586802740967</v>
+        <v>0.1302693697766983</v>
       </c>
       <c r="I17">
-        <v>0.008072646456118271</v>
+        <v>0.006533508277134281</v>
       </c>
       <c r="J17">
-        <v>0.5166753570163536</v>
+        <v>0.4701611540670996</v>
       </c>
       <c r="K17">
-        <v>0.519221251505023</v>
+        <v>0.4472142943617001</v>
       </c>
       <c r="L17">
-        <v>0.0560504803681372</v>
+        <v>0.1795438768637929</v>
       </c>
       <c r="M17">
-        <v>1.413085729883761</v>
+        <v>0.1575553577340969</v>
       </c>
       <c r="N17">
-        <v>0.1239887037108787</v>
+        <v>0.0556898037363851</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.389855094848883</v>
       </c>
       <c r="P17">
-        <v>0.9881440418800107</v>
+        <v>0.1376810399246509</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.9492183966743895</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.465636741951698</v>
+        <v>1.36935592064853</v>
       </c>
       <c r="C18">
-        <v>0.1707240244139001</v>
+        <v>0.1865983328059997</v>
       </c>
       <c r="D18">
-        <v>0.06175122580103931</v>
+        <v>0.06735581858291795</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.9879255263782696</v>
+        <v>0.8901264656467021</v>
       </c>
       <c r="G18">
-        <v>0.7335105407455984</v>
+        <v>0.6387789511255022</v>
       </c>
       <c r="H18">
-        <v>0.07883700361951185</v>
+        <v>0.07751952046570665</v>
       </c>
       <c r="I18">
-        <v>0.008006281659617365</v>
+        <v>0.006372716605305584</v>
       </c>
       <c r="J18">
-        <v>0.5443551693990116</v>
+        <v>0.5018907644720372</v>
       </c>
       <c r="K18">
-        <v>0.5550287097558098</v>
+        <v>0.4774688274373986</v>
       </c>
       <c r="L18">
-        <v>0.05428080271544733</v>
+        <v>0.1914905291642803</v>
       </c>
       <c r="M18">
-        <v>1.408608900532215</v>
+        <v>0.1680668227074662</v>
       </c>
       <c r="N18">
-        <v>0.1648494968579897</v>
+        <v>0.05239085819024547</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.386559397144339</v>
       </c>
       <c r="P18">
-        <v>1.004528078912769</v>
+        <v>0.1810365891602785</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.9571181628086922</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.525344360746146</v>
+        <v>1.419157767505197</v>
       </c>
       <c r="C19">
-        <v>0.1610466880037649</v>
+        <v>0.1782711852212344</v>
       </c>
       <c r="D19">
-        <v>0.07320173185554069</v>
+        <v>0.07960876220909796</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.081366893630275</v>
+        <v>0.9717780731488119</v>
       </c>
       <c r="G19">
-        <v>0.804484445855806</v>
+        <v>0.6966574388277706</v>
       </c>
       <c r="H19">
-        <v>0.03300266394468565</v>
+        <v>0.03177422503007676</v>
       </c>
       <c r="I19">
-        <v>0.00783767015916581</v>
+        <v>0.006310226167646427</v>
       </c>
       <c r="J19">
-        <v>0.5808635209816373</v>
+        <v>0.5352627389195561</v>
       </c>
       <c r="K19">
-        <v>0.6024100487383208</v>
+        <v>0.515472911391452</v>
       </c>
       <c r="L19">
-        <v>0.06067593540427652</v>
+        <v>0.2058360489548221</v>
       </c>
       <c r="M19">
-        <v>1.43533510692501</v>
+        <v>0.1821932142039628</v>
       </c>
       <c r="N19">
-        <v>0.2303845195599195</v>
+        <v>0.05653020864970948</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.411626222510108</v>
       </c>
       <c r="P19">
-        <v>1.023211020962317</v>
+        <v>0.2502385874968667</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.9653504318078312</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.696808465705658</v>
+        <v>1.565479930360141</v>
       </c>
       <c r="C20">
-        <v>0.1549026822724073</v>
+        <v>0.1742444571201247</v>
       </c>
       <c r="D20">
-        <v>0.0956372205135807</v>
+        <v>0.1044540894394856</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.252915583675218</v>
+        <v>1.11385348189269</v>
       </c>
       <c r="G20">
-        <v>0.9347483819638427</v>
+        <v>0.8122005358050615</v>
       </c>
       <c r="H20">
-        <v>0.004558209243729738</v>
+        <v>0.003696285816138456</v>
       </c>
       <c r="I20">
-        <v>0.006404915197777861</v>
+        <v>0.005311511115340117</v>
       </c>
       <c r="J20">
-        <v>0.6443228283277165</v>
+        <v>0.5728423554910904</v>
       </c>
       <c r="K20">
-        <v>0.6854533054960754</v>
+        <v>0.5773662226418779</v>
       </c>
       <c r="L20">
-        <v>0.08856316503066708</v>
+        <v>0.2266047125480846</v>
       </c>
       <c r="M20">
-        <v>1.551615358305668</v>
+        <v>0.2083725986558385</v>
       </c>
       <c r="N20">
-        <v>0.3614437735854636</v>
+        <v>0.08006891100090741</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.518622782141136</v>
       </c>
       <c r="P20">
-        <v>1.046496644333526</v>
+        <v>0.3881427098568082</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.9702290334489376</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.916409420186199</v>
+        <v>1.747541433203651</v>
       </c>
       <c r="C21">
-        <v>0.1726754066407921</v>
+        <v>0.188857734351771</v>
       </c>
       <c r="D21">
-        <v>0.1081420337715002</v>
+        <v>0.1230263372767268</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.334907855171025</v>
+        <v>1.146145227338394</v>
       </c>
       <c r="G21">
-        <v>0.9969889248708341</v>
+        <v>0.9343982791601206</v>
       </c>
       <c r="H21">
-        <v>0.002375556033429316</v>
+        <v>0.001937073140104717</v>
       </c>
       <c r="I21">
-        <v>0.004357419537668328</v>
+        <v>0.00391639049321757</v>
       </c>
       <c r="J21">
-        <v>0.6683228423937919</v>
+        <v>0.480378432558382</v>
       </c>
       <c r="K21">
-        <v>0.7137988267755659</v>
+        <v>0.5780324684770335</v>
       </c>
       <c r="L21">
-        <v>0.09824152756286253</v>
+        <v>0.2198222198851099</v>
       </c>
       <c r="M21">
-        <v>1.753013464178764</v>
+        <v>0.2176781072503466</v>
       </c>
       <c r="N21">
-        <v>0.4130230135392594</v>
+        <v>0.08802884399459998</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.685183434373073</v>
       </c>
       <c r="P21">
-        <v>1.009464387894379</v>
+        <v>0.4420741891986353</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.9251495871865565</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.058231373425144</v>
+        <v>1.863839885413142</v>
       </c>
       <c r="C22">
-        <v>0.184257944512936</v>
+        <v>0.1977389640822196</v>
       </c>
       <c r="D22">
-        <v>0.1151897724802069</v>
+        <v>0.1344436786844341</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.384823287757413</v>
+        <v>1.161739804445688</v>
       </c>
       <c r="G22">
-        <v>1.035602869826761</v>
+        <v>1.022027344842556</v>
       </c>
       <c r="H22">
-        <v>0.001431411219009027</v>
+        <v>0.001185524694900408</v>
       </c>
       <c r="I22">
-        <v>0.003064890893021754</v>
+        <v>0.002878485611600645</v>
       </c>
       <c r="J22">
-        <v>0.683030875099746</v>
+        <v>0.4223243297136605</v>
       </c>
       <c r="K22">
-        <v>0.7310517827220266</v>
+        <v>0.5764219949812386</v>
       </c>
       <c r="L22">
-        <v>0.1030359600827282</v>
+        <v>0.2147789088816729</v>
       </c>
       <c r="M22">
-        <v>1.883114614900506</v>
+        <v>0.2232850245568088</v>
       </c>
       <c r="N22">
-        <v>0.4399299344768508</v>
+        <v>0.09189539537259961</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.790190434671985</v>
       </c>
       <c r="P22">
-        <v>0.9849767233907976</v>
+        <v>0.4701431416944359</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.8960049674188326</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.9858685029252</v>
+        <v>1.806720525843815</v>
       </c>
       <c r="C23">
-        <v>0.1773139784567803</v>
+        <v>0.1930472342654781</v>
       </c>
       <c r="D23">
-        <v>0.1112568424169922</v>
+        <v>0.1275849202862815</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.361072846272009</v>
+        <v>1.159710905330485</v>
       </c>
       <c r="G23">
-        <v>1.017743274743012</v>
+        <v>0.9683973167368976</v>
       </c>
       <c r="H23">
-        <v>0.001897412764009454</v>
+        <v>0.001551510679098644</v>
       </c>
       <c r="I23">
-        <v>0.003388623666849888</v>
+        <v>0.003008655511925085</v>
       </c>
       <c r="J23">
-        <v>0.6765651889320168</v>
+        <v>0.46396602797725</v>
       </c>
       <c r="K23">
-        <v>0.723974066592838</v>
+        <v>0.5809378257388715</v>
       </c>
       <c r="L23">
-        <v>0.1006844551168058</v>
+        <v>0.2187020860564921</v>
       </c>
       <c r="M23">
-        <v>1.81445606361612</v>
+        <v>0.2217668212228467</v>
       </c>
       <c r="N23">
-        <v>0.4250435064608666</v>
+        <v>0.09001905557962431</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.738185813065058</v>
       </c>
       <c r="P23">
-        <v>0.999128265878138</v>
+        <v>0.4547386462102878</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.9127148998308439</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.706677974436019</v>
+        <v>1.574196433988305</v>
       </c>
       <c r="C24">
-        <v>0.1526308565445476</v>
+        <v>0.1719187966245812</v>
       </c>
       <c r="D24">
-        <v>0.09670425093622725</v>
+        <v>0.1055788574682737</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.268034342368139</v>
+        <v>1.127441485092163</v>
       </c>
       <c r="G24">
-        <v>0.9471087048447941</v>
+        <v>0.8222866076232549</v>
       </c>
       <c r="H24">
-        <v>0.004333331863495715</v>
+        <v>0.003484377123423532</v>
       </c>
       <c r="I24">
-        <v>0.005836990458485403</v>
+        <v>0.004653375285903039</v>
       </c>
       <c r="J24">
-        <v>0.6506631961550227</v>
+        <v>0.579255452080929</v>
       </c>
       <c r="K24">
-        <v>0.6944050495751881</v>
+        <v>0.5848838241201832</v>
       </c>
       <c r="L24">
-        <v>0.09143320158356616</v>
+        <v>0.2294611167250125</v>
       </c>
       <c r="M24">
-        <v>1.553991611160825</v>
+        <v>0.2111428199929684</v>
       </c>
       <c r="N24">
-        <v>0.3697614423887927</v>
+        <v>0.08260002527477184</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.520987457479606</v>
       </c>
       <c r="P24">
-        <v>1.052161276336953</v>
+        <v>0.3968990624837971</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.9738094909152863</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.406051355265703</v>
+        <v>1.303030560498598</v>
       </c>
       <c r="C25">
-        <v>0.1266879445622209</v>
+        <v>0.1400217068019884</v>
       </c>
       <c r="D25">
-        <v>0.08112269245882686</v>
+        <v>0.08811812037363609</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.171128656328065</v>
+        <v>1.054404957475995</v>
       </c>
       <c r="G25">
-        <v>0.8740630029124787</v>
+        <v>0.7638178615371203</v>
       </c>
       <c r="H25">
-        <v>0.008261250403336889</v>
+        <v>0.006731712395856293</v>
       </c>
       <c r="I25">
-        <v>0.009872353225258479</v>
+        <v>0.007619970278105903</v>
       </c>
       <c r="J25">
-        <v>0.6245400719793821</v>
+        <v>0.5686242249813205</v>
       </c>
       <c r="K25">
-        <v>0.6640548891789777</v>
+        <v>0.5694403649892337</v>
       </c>
       <c r="L25">
-        <v>0.08141092738449274</v>
+        <v>0.234017420919276</v>
       </c>
       <c r="M25">
-        <v>1.274576227964928</v>
+        <v>0.1938852357662739</v>
       </c>
       <c r="N25">
-        <v>0.3105641339306686</v>
+        <v>0.07442510501122257</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.251802708348521</v>
       </c>
       <c r="P25">
-        <v>1.111943862204331</v>
+        <v>0.3338258075241498</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1.034105525834512</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
